--- a/extract_scores.xlsx
+++ b/extract_scores.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:Y188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y113"/>
+      <selection sqref="A1:Y111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,22 +2271,22 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2295,60 +2295,60 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26">
         <v>45</v>
       </c>
       <c r="W26">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y26">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -2357,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2372,22 +2372,22 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N27">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2399,33 +2399,33 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -2434,13 +2434,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2449,22 +2449,22 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N28">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -2497,21 +2497,21 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M29">
         <v>10</v>
       </c>
       <c r="N29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2553,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V29">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -2574,21 +2574,21 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U30">
         <v>25</v>
       </c>
       <c r="V30">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -2651,60 +2651,60 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N31">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2713,78 +2713,78 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V31">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y31">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2793,39 +2793,39 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2834,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2858,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2876,33 +2876,33 @@
         <v>5</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y33">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2911,22 +2911,22 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2935,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -2953,18 +2953,18 @@
         <v>5</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -2976,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M35">
         <v>5</v>
@@ -3018,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3041,22 +3041,22 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3065,22 +3065,22 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3092,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="T36">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3107,33 +3107,33 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y36">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F37">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3142,37 +3142,37 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="J37">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K37">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S37">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="T37">
         <v>30</v>
@@ -3181,36 +3181,36 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W37">
         <v>2</v>
       </c>
       <c r="X37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y37">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>20</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3219,72 +3219,72 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N38">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T38">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V38">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="W38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y38">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -3299,10 +3299,10 @@
         <v>5</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -3311,31 +3311,31 @@
         <v>10</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -3349,90 +3349,90 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J40">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P40">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="U40">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X40">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Y40">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3441,37 +3441,37 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J41">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O41">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3480,69 +3480,69 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="T41">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U41">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="V41">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W41">
         <v>2</v>
       </c>
       <c r="X41">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y41">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -3557,33 +3557,33 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="W42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3604,19 +3604,19 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -3649,15 +3649,15 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3681,16 +3681,16 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>10</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M44">
         <v>10</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -3729,15 +3729,15 @@
         <v>5</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3752,34 +3752,34 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L45">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3791,36 +3791,36 @@
         <v>10</v>
       </c>
       <c r="T45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U45">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V45">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X45">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="Y45">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3829,66 +3829,66 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K46">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T46">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U46">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="W46">
+        <v>4</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Y46">
         <v>50</v>
-      </c>
-      <c r="W46">
-        <v>2</v>
-      </c>
-      <c r="X46">
-        <v>30</v>
-      </c>
-      <c r="Y46">
-        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B47">
         <v>20</v>
@@ -3897,81 +3897,81 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K47">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M47">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X47">
         <v>10</v>
       </c>
       <c r="Y47">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3980,31 +3980,31 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J48">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K48">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -4019,107 +4019,107 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U48">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X48">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y48">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K49">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <v>15</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y49">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>20</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4176,30 +4176,30 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4253,13 +4253,13 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53">
         <v>15</v>
@@ -4359,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M53">
         <v>5</v>
@@ -4404,22 +4404,22 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y53">
         <v>5</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B54">
         <v>15</v>
@@ -4439,7 +4439,7 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4454,16 +4454,16 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L54">
         <v>5</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4478,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S54">
         <v>5</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -4493,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>5</v>
@@ -4504,10 +4504,10 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4516,10 +4516,10 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4528,19 +4528,19 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K55">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>5</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4555,22 +4555,22 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56">
         <v>20</v>
@@ -4590,13 +4590,13 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4605,13 +4605,13 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>5</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L56">
         <v>5</v>
@@ -4641,16 +4641,16 @@
         <v>5</v>
       </c>
       <c r="U56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y56">
         <v>5</v>
@@ -4658,10 +4658,10 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>5</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>5</v>
@@ -4700,13 +4700,13 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -4715,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -4789,22 +4789,22 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>5</v>
@@ -4812,19 +4812,19 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4836,19 +4836,19 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4860,51 +4860,51 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J60">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K60">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M60">
         <v>20</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -4940,39 +4940,39 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V60">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X60">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y60">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4990,75 +4990,75 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K61">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L61">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N61">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U61">
         <v>15</v>
       </c>
       <c r="V61">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="W61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X61">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y61">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F62">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5067,72 +5067,72 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L62">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N62">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="P62">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="R62">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V62">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X62">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="Y62">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B63">
         <v>20</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5147,31 +5147,31 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K63">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -5183,30 +5183,30 @@
         <v>5</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y63">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5221,19 +5221,19 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J64">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -5254,42 +5254,42 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V64">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B65">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -5298,55 +5298,55 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J65">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T65">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="U65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V65">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Y65">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
@@ -5354,123 +5354,123 @@
         <v>62</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J66">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K66">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L66">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="M66">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="U66">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V66">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="Y66">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T67">
         <v>10</v>
@@ -5491,21 +5491,21 @@
         <v>10</v>
       </c>
       <c r="V67">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y67">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>20</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5532,22 +5532,22 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M68">
         <v>10</v>
       </c>
       <c r="N68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -5562,10 +5562,10 @@
         <v>5</v>
       </c>
       <c r="T68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>10</v>
@@ -5582,10 +5582,10 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -5609,19 +5609,19 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S69">
         <v>5</v>
@@ -5654,18 +5654,18 @@
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -5686,10 +5686,10 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L70">
         <v>5</v>
@@ -5698,7 +5698,7 @@
         <v>5</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T70">
         <v>5</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -5736,16 +5736,16 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>20</v>
       </c>
       <c r="C71">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5754,28 +5754,28 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K71">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -5784,31 +5784,31 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
       <c r="T71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V71">
         <v>0</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X71">
         <v>0</v>
       </c>
       <c r="Y71">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -5816,10 +5816,10 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -5828,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G72">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5840,16 +5840,16 @@
         <v>50</v>
       </c>
       <c r="J72">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K72">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L72">
         <v>50</v>
       </c>
       <c r="M72">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N72">
         <v>30</v>
@@ -5858,13 +5858,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q72">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R72">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="U72">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -5885,137 +5885,137 @@
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C73">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J73">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K73">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L73">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N73">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P73">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U73">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G74">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I74">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J74">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K74">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M74">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O74">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P74">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6024,119 +6024,119 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="U74">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="V74">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X74">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y74">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B75">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J75">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L75">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N75">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P75">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
       <c r="T75">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U75">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V75">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X75">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y75">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6145,19 +6145,19 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K76">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M76">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -6169,42 +6169,42 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
       <c r="T76">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="U76">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X76">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B77">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C77">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="D77">
         <v>10</v>
@@ -6213,87 +6213,87 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J77">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K77">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L77">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S77">
         <v>0</v>
       </c>
       <c r="T77">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V77">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X77">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y77">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G78">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -6302,16 +6302,16 @@
         <v>35</v>
       </c>
       <c r="J78">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K78">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>35</v>
       </c>
       <c r="M78">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N78">
         <v>35</v>
@@ -6320,13 +6320,13 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -6335,16 +6335,16 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="V78">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="W78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X78">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y78">
         <v>35</v>
@@ -6352,22 +6352,22 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -6376,22 +6376,22 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J79">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M79">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N79">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -6412,39 +6412,39 @@
         <v>0</v>
       </c>
       <c r="U79">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V79">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X79">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y79">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L80">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -6489,39 +6489,39 @@
         <v>0</v>
       </c>
       <c r="U80">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="V80">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="W80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B81">
         <v>20</v>
       </c>
       <c r="C81">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -6530,176 +6530,176 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K81">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M81">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S81">
         <v>0</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U81">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y81">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J82">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K82">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L82">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>25</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O82">
         <v>0</v>
       </c>
       <c r="P82">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S82">
         <v>0</v>
       </c>
       <c r="T82">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U82">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X82">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y82">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K83">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M83">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N83">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -6711,36 +6711,36 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T83">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U83">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="V83">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X83">
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -6767,7 +6767,7 @@
         <v>5</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L84">
         <v>5</v>
@@ -6776,7 +6776,7 @@
         <v>5</v>
       </c>
       <c r="N84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -6794,45 +6794,45 @@
         <v>5</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U84">
         <v>5</v>
       </c>
       <c r="V84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
       <c r="X84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y84">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B85">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6841,25 +6841,25 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K85">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L85">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M85">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -6868,75 +6868,75 @@
         <v>0</v>
       </c>
       <c r="S85">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="T85">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="U85">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V85">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X85">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Y85">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B86">
         <v>20</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J86">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K86">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L86">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M86">
         <v>30</v>
       </c>
       <c r="N86">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P86">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -6945,122 +6945,122 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U86">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W86">
         <v>3</v>
       </c>
       <c r="X86">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Y86">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G87">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J87">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L87">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M87">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O87">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P87">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="T87">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V87">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y87">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -7069,72 +7069,72 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K88">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M88">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N88">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T88">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U88">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="V88">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W88">
         <v>2</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y88">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -7146,52 +7146,52 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>20</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L89">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N89">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="P89">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V89">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y89">
         <v>20</v>
@@ -7199,22 +7199,22 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B90">
         <v>25</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <v>5</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -7223,72 +7223,72 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J90">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K90">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M90">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S90">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U90">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="V90">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W90">
         <v>0</v>
       </c>
       <c r="X90">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y90">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B91">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -7300,28 +7300,28 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K91">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M91">
         <v>15</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P91">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -7333,116 +7333,116 @@
         <v>0</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y91">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B92">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J92">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K92">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L92">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M92">
         <v>30</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O92">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P92">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="S92">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T92">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="U92">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="V92">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X92">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y92">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B93">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7454,66 +7454,66 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J93">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K93">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="L93">
         <v>15</v>
       </c>
       <c r="M93">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O93">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P93">
         <v>15</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R93">
         <v>0</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T93">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U93">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V93">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y93">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B94">
         <v>20</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>10</v>
@@ -7522,84 +7522,84 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G94">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J94">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K94">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L94">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M94">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O94">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R94">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T94">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U94">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V94">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X94">
         <v>0</v>
       </c>
       <c r="Y94">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -7608,63 +7608,63 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J95">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K95">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P95">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q95">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R95">
         <v>0</v>
       </c>
       <c r="S95">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="T95">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U95">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V95">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="W95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X95">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Y95">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7673,87 +7673,87 @@
         <v>10</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I96">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J96">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L96">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M96">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O96">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P96">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T96">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U96">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V96">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="W96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X96">
         <v>0</v>
       </c>
       <c r="Y96">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B97">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -7762,60 +7762,60 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M97">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R97">
         <v>0</v>
       </c>
       <c r="S97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T97">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U97">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="V97">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X97">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y97">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -7824,46 +7824,46 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G98">
         <v>30</v>
       </c>
       <c r="H98">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K98">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L98">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>30</v>
       </c>
       <c r="N98">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7872,42 +7872,42 @@
         <v>0</v>
       </c>
       <c r="T98">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U98">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="V98">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="W98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X98">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y98">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B99">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -7916,22 +7916,22 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L99">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M99">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N99">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -7949,119 +7949,119 @@
         <v>0</v>
       </c>
       <c r="T99">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="U99">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V99">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="W99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y99">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B100">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G100">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I100">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J100">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K100">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M100">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P100">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S100">
         <v>0</v>
       </c>
       <c r="T100">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U100">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V100">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X100">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B101">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -8070,22 +8070,22 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J101">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="K101">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -8094,113 +8094,113 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R101">
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T101">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="U101">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V101">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X101">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y101">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B102">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H102">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J102">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K102">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L102">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N102">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O102">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S102">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T102">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U102">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V102">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="W102">
         <v>0</v>
       </c>
       <c r="X102">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y102">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B103">
         <v>20</v>
@@ -8212,10 +8212,10 @@
         <v>5</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -8224,137 +8224,137 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J103">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q103">
         <v>5</v>
       </c>
       <c r="R103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T103">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="U103">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V103">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X103">
         <v>0</v>
       </c>
       <c r="Y103">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B104">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K104">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M104">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N104">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O104">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P104">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S104">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T104">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U104">
         <v>0</v>
       </c>
       <c r="V104">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="W104">
         <v>0</v>
       </c>
       <c r="X104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y104">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B105">
         <v>20</v>
@@ -8363,16 +8363,16 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>45</v>
       </c>
       <c r="K105">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -8393,37 +8393,37 @@
         <v>45</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O105">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P105">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="Q105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T105">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U105">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="V105">
         <v>45</v>
       </c>
       <c r="W105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X105">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y105">
         <v>45</v>
@@ -8431,49 +8431,49 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B106">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J106">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L106">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M106">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -8482,33 +8482,33 @@
         <v>10</v>
       </c>
       <c r="R106">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S106">
         <v>10</v>
       </c>
       <c r="T106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V106">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X106">
         <v>0</v>
       </c>
       <c r="Y106">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B107">
         <v>20</v>
@@ -8517,34 +8517,34 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="N107">
         <v>5</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="P107">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -8562,78 +8562,78 @@
         <v>0</v>
       </c>
       <c r="S107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T107">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="U107">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="V107">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="W107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X107">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y107">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B108">
         <v>20</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G108">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J108">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K108">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L108">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M108">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N108">
         <v>0</v>
       </c>
       <c r="O108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R108">
         <v>10</v>
@@ -8642,13 +8642,13 @@
         <v>10</v>
       </c>
       <c r="T108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V108">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W108">
         <v>3</v>
@@ -8657,27 +8657,27 @@
         <v>0</v>
       </c>
       <c r="Y108">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -8686,99 +8686,99 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J109">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L109">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="M109">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S109">
         <v>0</v>
       </c>
       <c r="T109">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U109">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="V109">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="W109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X109">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y109">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B110">
         <v>20</v>
       </c>
       <c r="C110">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K110">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R110">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S110">
         <v>10</v>
@@ -8799,75 +8799,75 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V110">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X110">
         <v>0</v>
       </c>
       <c r="Y110">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B111">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J111">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K111">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L111">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O111">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P111">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -8876,19 +8876,19 @@
         <v>10</v>
       </c>
       <c r="U111">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V111">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X111">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Y111">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">

--- a/extract_scores.xlsx
+++ b/extract_scores.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Thesis Work\CRIq_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CRIq_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,9 @@
       <selection sqref="A1:Y110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>26</v>
       </c>
@@ -421,7 +421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>66</v>
       </c>
@@ -498,7 +498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>72</v>
       </c>
@@ -652,7 +652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>66</v>
       </c>
@@ -729,7 +729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>29</v>
       </c>
@@ -806,7 +806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>55</v>
       </c>
@@ -883,7 +883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>34</v>
       </c>
@@ -960,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>48</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>47</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>59</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>21</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>53</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>23</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>48</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>22</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>71</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>65</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>52</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>73</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>69</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>23</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>48</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>22</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>70</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>47</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>26</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>28</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>62</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>72</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>22</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>28</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>25</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>65</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>67</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>30</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>67</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>35</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>20</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>21</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>43</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>23</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>22</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>22</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>31</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>69</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>68</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>65</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>21</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>26</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>62</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>25</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>24</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>19</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>21</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>67</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>42</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>52</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>56</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>32</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>51</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>49</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>43</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>22</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>20</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>45</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>23</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>18</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>49</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>61</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>51</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>35</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>36</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>72</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>32</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>55</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>75</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>44</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>56</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>61</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>24</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>55</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>59</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>38</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>21</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>72</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>63</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>31</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>61</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>67</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>22</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>54</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>63</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>24</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>53</v>
       </c>
@@ -8814,1025 +8814,1025 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111">
+        <v>64</v>
+      </c>
+      <c r="B111">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>63</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>45</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>50</v>
+      </c>
+      <c r="J111">
+        <v>50</v>
+      </c>
+      <c r="K111">
+        <v>50</v>
+      </c>
+      <c r="L111">
+        <v>50</v>
+      </c>
+      <c r="M111">
+        <v>15</v>
+      </c>
+      <c r="N111">
+        <v>30</v>
+      </c>
+      <c r="O111">
+        <v>30</v>
+      </c>
+      <c r="P111">
+        <v>15</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>5</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>25</v>
+      </c>
+      <c r="U111">
+        <v>15</v>
+      </c>
+      <c r="V111">
+        <v>50</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>25</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>10</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>10</v>
+      </c>
+      <c r="N112">
+        <v>10</v>
+      </c>
+      <c r="O112">
+        <v>10</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>5</v>
+      </c>
+      <c r="T112">
+        <v>10</v>
+      </c>
+      <c r="U112">
+        <v>10</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>5</v>
+      </c>
+      <c r="Y112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>24</v>
+      </c>
+      <c r="B113">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>5</v>
+      </c>
+      <c r="K113">
+        <v>5</v>
+      </c>
+      <c r="L113">
+        <v>10</v>
+      </c>
+      <c r="M113">
+        <v>10</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>5</v>
+      </c>
+      <c r="T113">
+        <v>5</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>19</v>
+      </c>
+      <c r="B114">
+        <v>15</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>5</v>
+      </c>
+      <c r="M114">
+        <v>5</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114">
+        <v>5</v>
+      </c>
+      <c r="T114">
+        <v>5</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>21</v>
       </c>
-      <c r="B111">
-        <v>20</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>20</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>5</v>
-      </c>
-      <c r="M111">
-        <v>20</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-      <c r="S111">
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <v>0</v>
-      </c>
-      <c r="U111">
-        <v>5</v>
-      </c>
-      <c r="V111">
-        <v>20</v>
-      </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-      <c r="X111">
-        <v>15</v>
-      </c>
-      <c r="Y111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>26</v>
-      </c>
-      <c r="B112">
-        <v>25</v>
-      </c>
-      <c r="C112">
+      <c r="B115">
+        <v>20</v>
+      </c>
+      <c r="C115">
+        <v>0.5</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>5</v>
+      </c>
+      <c r="K115">
+        <v>5</v>
+      </c>
+      <c r="L115">
+        <v>5</v>
+      </c>
+      <c r="M115">
+        <v>5</v>
+      </c>
+      <c r="N115">
+        <v>5</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>5</v>
+      </c>
+      <c r="U115">
+        <v>5</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>67</v>
+      </c>
+      <c r="B116">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>40</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>50</v>
+      </c>
+      <c r="J116">
+        <v>10</v>
+      </c>
+      <c r="K116">
+        <v>45</v>
+      </c>
+      <c r="L116">
+        <v>50</v>
+      </c>
+      <c r="M116">
+        <v>30</v>
+      </c>
+      <c r="N116">
+        <v>30</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>30</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>15</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>3</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>67</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>3.5</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>40</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>50</v>
+      </c>
+      <c r="J117">
+        <v>50</v>
+      </c>
+      <c r="K117">
+        <v>50</v>
+      </c>
+      <c r="L117">
+        <v>50</v>
+      </c>
+      <c r="M117">
+        <v>20</v>
+      </c>
+      <c r="N117">
+        <v>30</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>25</v>
+      </c>
+      <c r="Q117">
+        <v>10</v>
+      </c>
+      <c r="R117">
+        <v>10</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>3</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>42</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>20</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>25</v>
+      </c>
+      <c r="J118">
+        <v>25</v>
+      </c>
+      <c r="K118">
+        <v>15</v>
+      </c>
+      <c r="L118">
+        <v>15</v>
+      </c>
+      <c r="M118">
+        <v>25</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>10</v>
+      </c>
+      <c r="P118">
+        <v>20</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>25</v>
+      </c>
+      <c r="U118">
+        <v>15</v>
+      </c>
+      <c r="V118">
+        <v>25</v>
+      </c>
+      <c r="W118">
+        <v>2</v>
+      </c>
+      <c r="X118">
+        <v>25</v>
+      </c>
+      <c r="Y118">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>52</v>
+      </c>
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>25</v>
+      </c>
+      <c r="G119">
+        <v>10</v>
+      </c>
+      <c r="H119">
+        <v>10</v>
+      </c>
+      <c r="I119">
+        <v>35</v>
+      </c>
+      <c r="J119">
+        <v>35</v>
+      </c>
+      <c r="K119">
+        <v>35</v>
+      </c>
+      <c r="L119">
+        <v>35</v>
+      </c>
+      <c r="M119">
+        <v>35</v>
+      </c>
+      <c r="N119">
+        <v>35</v>
+      </c>
+      <c r="O119">
+        <v>35</v>
+      </c>
+      <c r="P119">
+        <v>30</v>
+      </c>
+      <c r="Q119">
+        <v>20</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>35</v>
+      </c>
+      <c r="U119">
+        <v>35</v>
+      </c>
+      <c r="V119">
+        <v>35</v>
+      </c>
+      <c r="W119">
         <v>1</v>
       </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>10</v>
-      </c>
-      <c r="J112">
-        <v>10</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>10</v>
-      </c>
-      <c r="M112">
-        <v>10</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112">
-        <v>5</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <v>10</v>
-      </c>
-      <c r="U112">
-        <v>10</v>
-      </c>
-      <c r="V112">
-        <v>10</v>
-      </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <v>0</v>
-      </c>
-      <c r="Y112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>62</v>
-      </c>
-      <c r="B113">
-        <v>20</v>
-      </c>
-      <c r="C113">
+      <c r="X119">
+        <v>35</v>
+      </c>
+      <c r="Y119">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>56</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+      <c r="C120">
         <v>2</v>
       </c>
-      <c r="D113">
-        <v>15</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>15</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>5</v>
-      </c>
-      <c r="J113">
-        <v>55</v>
-      </c>
-      <c r="K113">
-        <v>50</v>
-      </c>
-      <c r="L113">
-        <v>55</v>
-      </c>
-      <c r="M113">
-        <v>35</v>
-      </c>
-      <c r="N113">
-        <v>55</v>
-      </c>
-      <c r="O113">
-        <v>45</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>30</v>
-      </c>
-      <c r="R113">
-        <v>50</v>
-      </c>
-      <c r="S113">
-        <v>45</v>
-      </c>
-      <c r="T113">
-        <v>45</v>
-      </c>
-      <c r="U113">
-        <v>20</v>
-      </c>
-      <c r="V113">
-        <v>55</v>
-      </c>
-      <c r="W113">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>40</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>40</v>
+      </c>
+      <c r="J120">
+        <v>40</v>
+      </c>
+      <c r="K120">
+        <v>40</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>20</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>5</v>
+      </c>
+      <c r="R120">
+        <v>5</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>40</v>
+      </c>
+      <c r="U120">
+        <v>40</v>
+      </c>
+      <c r="V120">
+        <v>40</v>
+      </c>
+      <c r="W120">
+        <v>2</v>
+      </c>
+      <c r="X120">
+        <v>30</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>32</v>
+      </c>
+      <c r="B121">
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <v>1.5</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>15</v>
+      </c>
+      <c r="K121">
+        <v>15</v>
+      </c>
+      <c r="L121">
+        <v>10</v>
+      </c>
+      <c r="M121">
+        <v>15</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>15</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>15</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>15</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>10</v>
+      </c>
+      <c r="Y121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>51</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+      <c r="C122">
+        <v>4.5</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122">
+        <v>20</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>35</v>
+      </c>
+      <c r="J122">
+        <v>35</v>
+      </c>
+      <c r="K122">
+        <v>35</v>
+      </c>
+      <c r="L122">
+        <v>35</v>
+      </c>
+      <c r="M122">
+        <v>35</v>
+      </c>
+      <c r="N122">
+        <v>35</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>35</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>30</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>35</v>
+      </c>
+      <c r="V122">
+        <v>35</v>
+      </c>
+      <c r="W122">
+        <v>5</v>
+      </c>
+      <c r="X122">
+        <v>15</v>
+      </c>
+      <c r="Y122">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>49</v>
+      </c>
+      <c r="B123">
+        <v>12</v>
+      </c>
+      <c r="C123">
+        <v>2.5</v>
+      </c>
+      <c r="D123">
+        <v>15</v>
+      </c>
+      <c r="E123">
+        <v>20</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>35</v>
+      </c>
+      <c r="J123">
+        <v>30</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>35</v>
+      </c>
+      <c r="M123">
+        <v>10</v>
+      </c>
+      <c r="N123">
+        <v>35</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>10</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>5</v>
+      </c>
+      <c r="V123">
+        <v>15</v>
+      </c>
+      <c r="W123">
         <v>3</v>
       </c>
-      <c r="X113">
-        <v>45</v>
-      </c>
-      <c r="Y113">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>62</v>
-      </c>
-      <c r="B114">
-        <v>15</v>
-      </c>
-      <c r="C114">
+      <c r="X123">
+        <v>10</v>
+      </c>
+      <c r="Y123">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>43</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+      <c r="C124">
         <v>3</v>
       </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>10</v>
-      </c>
-      <c r="G114">
-        <v>30</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>30</v>
-      </c>
-      <c r="J114">
-        <v>30</v>
-      </c>
-      <c r="K114">
-        <v>10</v>
-      </c>
-      <c r="L114">
-        <v>10</v>
-      </c>
-      <c r="M114">
-        <v>15</v>
-      </c>
-      <c r="N114">
-        <v>0</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <v>10</v>
-      </c>
-      <c r="U114">
-        <v>10</v>
-      </c>
-      <c r="V114">
-        <v>40</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-      <c r="X114">
-        <v>20</v>
-      </c>
-      <c r="Y114">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>64</v>
-      </c>
-      <c r="B115">
-        <v>20</v>
-      </c>
-      <c r="C115">
-        <v>63</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>45</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>50</v>
-      </c>
-      <c r="J115">
-        <v>50</v>
-      </c>
-      <c r="K115">
-        <v>50</v>
-      </c>
-      <c r="L115">
-        <v>50</v>
-      </c>
-      <c r="M115">
-        <v>15</v>
-      </c>
-      <c r="N115">
-        <v>30</v>
-      </c>
-      <c r="O115">
-        <v>30</v>
-      </c>
-      <c r="P115">
-        <v>15</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>5</v>
-      </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <v>25</v>
-      </c>
-      <c r="U115">
-        <v>15</v>
-      </c>
-      <c r="V115">
-        <v>50</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
-      <c r="Y115">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>25</v>
-      </c>
-      <c r="B116">
-        <v>20</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>10</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>10</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>10</v>
-      </c>
-      <c r="N116">
-        <v>10</v>
-      </c>
-      <c r="O116">
-        <v>10</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
-      <c r="S116">
-        <v>5</v>
-      </c>
-      <c r="T116">
-        <v>10</v>
-      </c>
-      <c r="U116">
-        <v>10</v>
-      </c>
-      <c r="V116">
-        <v>0</v>
-      </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-      <c r="X116">
-        <v>5</v>
-      </c>
-      <c r="Y116">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>24</v>
-      </c>
-      <c r="B117">
-        <v>20</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>5</v>
-      </c>
-      <c r="K117">
-        <v>5</v>
-      </c>
-      <c r="L117">
-        <v>10</v>
-      </c>
-      <c r="M117">
-        <v>10</v>
-      </c>
-      <c r="N117">
-        <v>5</v>
-      </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-      <c r="S117">
-        <v>5</v>
-      </c>
-      <c r="T117">
-        <v>5</v>
-      </c>
-      <c r="U117">
-        <v>0</v>
-      </c>
-      <c r="V117">
-        <v>0</v>
-      </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>19</v>
-      </c>
-      <c r="B118">
-        <v>15</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>5</v>
-      </c>
-      <c r="M118">
-        <v>5</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>5</v>
-      </c>
-      <c r="S118">
-        <v>5</v>
-      </c>
-      <c r="T118">
-        <v>5</v>
-      </c>
-      <c r="U118">
-        <v>0</v>
-      </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>21</v>
-      </c>
-      <c r="B119">
-        <v>20</v>
-      </c>
-      <c r="C119">
-        <v>0.5</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>5</v>
-      </c>
-      <c r="K119">
-        <v>5</v>
-      </c>
-      <c r="L119">
-        <v>5</v>
-      </c>
-      <c r="M119">
-        <v>5</v>
-      </c>
-      <c r="N119">
-        <v>5</v>
-      </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>0</v>
-      </c>
-      <c r="T119">
-        <v>5</v>
-      </c>
-      <c r="U119">
-        <v>5</v>
-      </c>
-      <c r="V119">
-        <v>0</v>
-      </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
-      </c>
-      <c r="Y119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>67</v>
-      </c>
-      <c r="B120">
-        <v>20</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>40</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>50</v>
-      </c>
-      <c r="J120">
-        <v>10</v>
-      </c>
-      <c r="K120">
-        <v>45</v>
-      </c>
-      <c r="L120">
-        <v>50</v>
-      </c>
-      <c r="M120">
-        <v>30</v>
-      </c>
-      <c r="N120">
-        <v>30</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>5</v>
-      </c>
-      <c r="R120">
-        <v>30</v>
-      </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-      <c r="T120">
-        <v>0</v>
-      </c>
-      <c r="U120">
-        <v>15</v>
-      </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
-      <c r="W120">
-        <v>3</v>
-      </c>
-      <c r="X120">
-        <v>0</v>
-      </c>
-      <c r="Y120">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>67</v>
-      </c>
-      <c r="B121">
-        <v>10</v>
-      </c>
-      <c r="C121">
-        <v>3.5</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>40</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>50</v>
-      </c>
-      <c r="J121">
-        <v>50</v>
-      </c>
-      <c r="K121">
-        <v>50</v>
-      </c>
-      <c r="L121">
-        <v>50</v>
-      </c>
-      <c r="M121">
-        <v>20</v>
-      </c>
-      <c r="N121">
-        <v>30</v>
-      </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-      <c r="P121">
-        <v>25</v>
-      </c>
-      <c r="Q121">
-        <v>10</v>
-      </c>
-      <c r="R121">
-        <v>10</v>
-      </c>
-      <c r="S121">
-        <v>0</v>
-      </c>
-      <c r="T121">
-        <v>0</v>
-      </c>
-      <c r="U121">
-        <v>0</v>
-      </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
-      <c r="W121">
-        <v>3</v>
-      </c>
-      <c r="X121">
-        <v>0</v>
-      </c>
-      <c r="Y121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>42</v>
-      </c>
-      <c r="B122">
-        <v>20</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>20</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>25</v>
-      </c>
-      <c r="J122">
-        <v>25</v>
-      </c>
-      <c r="K122">
-        <v>15</v>
-      </c>
-      <c r="L122">
-        <v>15</v>
-      </c>
-      <c r="M122">
-        <v>25</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>10</v>
-      </c>
-      <c r="P122">
-        <v>20</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
-      <c r="S122">
-        <v>0</v>
-      </c>
-      <c r="T122">
-        <v>25</v>
-      </c>
-      <c r="U122">
-        <v>15</v>
-      </c>
-      <c r="V122">
-        <v>25</v>
-      </c>
-      <c r="W122">
-        <v>2</v>
-      </c>
-      <c r="X122">
-        <v>25</v>
-      </c>
-      <c r="Y122">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>52</v>
-      </c>
-      <c r="B123">
-        <v>40</v>
-      </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-      <c r="E123">
-        <v>5</v>
-      </c>
-      <c r="F123">
-        <v>25</v>
-      </c>
-      <c r="G123">
-        <v>10</v>
-      </c>
-      <c r="H123">
-        <v>10</v>
-      </c>
-      <c r="I123">
-        <v>35</v>
-      </c>
-      <c r="J123">
-        <v>35</v>
-      </c>
-      <c r="K123">
-        <v>35</v>
-      </c>
-      <c r="L123">
-        <v>35</v>
-      </c>
-      <c r="M123">
-        <v>35</v>
-      </c>
-      <c r="N123">
-        <v>35</v>
-      </c>
-      <c r="O123">
-        <v>35</v>
-      </c>
-      <c r="P123">
-        <v>30</v>
-      </c>
-      <c r="Q123">
-        <v>20</v>
-      </c>
-      <c r="R123">
-        <v>0</v>
-      </c>
-      <c r="S123">
-        <v>0</v>
-      </c>
-      <c r="T123">
-        <v>35</v>
-      </c>
-      <c r="U123">
-        <v>35</v>
-      </c>
-      <c r="V123">
-        <v>35</v>
-      </c>
-      <c r="W123">
-        <v>1</v>
-      </c>
-      <c r="X123">
-        <v>35</v>
-      </c>
-      <c r="Y123">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>56</v>
-      </c>
-      <c r="B124">
-        <v>15</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
       <c r="D124">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -9841,19 +9841,19 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J124">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K124">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M124">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -9865,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R124">
         <v>5</v>
@@ -9874,42 +9874,42 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U124">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="V124">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="W124">
         <v>2</v>
       </c>
       <c r="X124">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B125">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C125">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -9921,19 +9921,19 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K125">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L125">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M125">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -9945,51 +9945,51 @@
         <v>0</v>
       </c>
       <c r="R125">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S125">
         <v>0</v>
       </c>
       <c r="T125">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V125">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W125">
         <v>0</v>
       </c>
       <c r="X125">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y125">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B126">
         <v>20</v>
       </c>
       <c r="C126">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G126">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -10007,10 +10007,10 @@
         <v>35</v>
       </c>
       <c r="M126">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N126">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -10019,267 +10019,267 @@
         <v>35</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R126">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S126">
         <v>0</v>
       </c>
       <c r="T126">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U126">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="V126">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="W126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X126">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y126">
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127">
+        <v>45</v>
+      </c>
+      <c r="B127">
+        <v>23</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>20</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>30</v>
+      </c>
+      <c r="J127">
+        <v>30</v>
+      </c>
+      <c r="K127">
+        <v>25</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>25</v>
+      </c>
+      <c r="N127">
+        <v>15</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>5</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>30</v>
+      </c>
+      <c r="U127">
+        <v>30</v>
+      </c>
+      <c r="V127">
+        <v>30</v>
+      </c>
+      <c r="W127">
+        <v>1</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>23</v>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>5</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>5</v>
+      </c>
+      <c r="M128">
+        <v>5</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>5</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>5</v>
+      </c>
+      <c r="V128">
+        <v>5</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>18</v>
+      </c>
+      <c r="B129">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>5</v>
+      </c>
+      <c r="K129">
+        <v>5</v>
+      </c>
+      <c r="L129">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>5</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>5</v>
+      </c>
+      <c r="U129">
+        <v>5</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>5</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>49</v>
-      </c>
-      <c r="B127">
-        <v>12</v>
-      </c>
-      <c r="C127">
-        <v>2.5</v>
-      </c>
-      <c r="D127">
-        <v>15</v>
-      </c>
-      <c r="E127">
-        <v>20</v>
-      </c>
-      <c r="F127">
-        <v>5</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>35</v>
-      </c>
-      <c r="J127">
-        <v>30</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>35</v>
-      </c>
-      <c r="M127">
-        <v>10</v>
-      </c>
-      <c r="N127">
-        <v>35</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>10</v>
-      </c>
-      <c r="S127">
-        <v>0</v>
-      </c>
-      <c r="T127">
-        <v>0</v>
-      </c>
-      <c r="U127">
-        <v>5</v>
-      </c>
-      <c r="V127">
-        <v>15</v>
-      </c>
-      <c r="W127">
-        <v>3</v>
-      </c>
-      <c r="X127">
-        <v>10</v>
-      </c>
-      <c r="Y127">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>43</v>
-      </c>
-      <c r="B128">
-        <v>15</v>
-      </c>
-      <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128">
-        <v>10</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>20</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>25</v>
-      </c>
-      <c r="J128">
-        <v>25</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>25</v>
-      </c>
-      <c r="M128">
-        <v>25</v>
-      </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-      <c r="R128">
-        <v>5</v>
-      </c>
-      <c r="S128">
-        <v>0</v>
-      </c>
-      <c r="T128">
-        <v>0</v>
-      </c>
-      <c r="U128">
-        <v>25</v>
-      </c>
-      <c r="V128">
-        <v>25</v>
-      </c>
-      <c r="W128">
-        <v>2</v>
-      </c>
-      <c r="X128">
-        <v>20</v>
-      </c>
-      <c r="Y128">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>22</v>
-      </c>
-      <c r="B129">
-        <v>20</v>
-      </c>
-      <c r="C129">
-        <v>0.5</v>
-      </c>
-      <c r="D129">
-        <v>5</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>5</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>5</v>
-      </c>
-      <c r="K129">
-        <v>5</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>5</v>
-      </c>
-      <c r="N129">
-        <v>5</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>0</v>
-      </c>
-      <c r="R129">
-        <v>5</v>
-      </c>
-      <c r="S129">
-        <v>0</v>
-      </c>
-      <c r="T129">
-        <v>0</v>
-      </c>
-      <c r="U129">
-        <v>5</v>
-      </c>
-      <c r="V129">
-        <v>5</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <v>0</v>
-      </c>
-      <c r="Y129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>20</v>
       </c>
       <c r="B130">
         <v>20</v>
@@ -10288,265 +10288,265 @@
         <v>2</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E130">
         <v>5</v>
       </c>
       <c r="F130">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>35</v>
       </c>
       <c r="K130">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L130">
         <v>35</v>
       </c>
       <c r="M130">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O130">
         <v>0</v>
       </c>
       <c r="P130">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q130">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R130">
         <v>0</v>
       </c>
       <c r="S130">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="T130">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U130">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V130">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="W130">
+        <v>3</v>
+      </c>
+      <c r="X130">
+        <v>25</v>
+      </c>
+      <c r="Y130">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>61</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>40</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>45</v>
+      </c>
+      <c r="J131">
+        <v>40</v>
+      </c>
+      <c r="K131">
+        <v>35</v>
+      </c>
+      <c r="L131">
+        <v>45</v>
+      </c>
+      <c r="M131">
+        <v>30</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>35</v>
+      </c>
+      <c r="P131">
+        <v>40</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>40</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>45</v>
+      </c>
+      <c r="W131">
+        <v>3</v>
+      </c>
+      <c r="X131">
+        <v>5</v>
+      </c>
+      <c r="Y131">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>51</v>
+      </c>
+      <c r="B132">
+        <v>25</v>
+      </c>
+      <c r="C132">
+        <v>0.5</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>25</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>35</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>30</v>
+      </c>
+      <c r="L132">
+        <v>35</v>
+      </c>
+      <c r="M132">
+        <v>35</v>
+      </c>
+      <c r="N132">
+        <v>35</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>35</v>
+      </c>
+      <c r="S132">
+        <v>35</v>
+      </c>
+      <c r="T132">
+        <v>30</v>
+      </c>
+      <c r="U132">
+        <v>35</v>
+      </c>
+      <c r="V132">
+        <v>35</v>
+      </c>
+      <c r="W132">
         <v>2</v>
       </c>
-      <c r="X130">
-        <v>10</v>
-      </c>
-      <c r="Y130">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>58</v>
+      </c>
+      <c r="B133">
+        <v>20</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <v>15</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>45</v>
       </c>
-      <c r="B131">
-        <v>23</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>10</v>
-      </c>
-      <c r="G131">
-        <v>20</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>30</v>
-      </c>
-      <c r="J131">
-        <v>30</v>
-      </c>
-      <c r="K131">
-        <v>25</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>25</v>
-      </c>
-      <c r="N131">
-        <v>15</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>5</v>
-      </c>
-      <c r="S131">
-        <v>0</v>
-      </c>
-      <c r="T131">
-        <v>30</v>
-      </c>
-      <c r="U131">
-        <v>30</v>
-      </c>
-      <c r="V131">
-        <v>30</v>
-      </c>
-      <c r="W131">
-        <v>1</v>
-      </c>
-      <c r="X131">
-        <v>0</v>
-      </c>
-      <c r="Y131">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>23</v>
-      </c>
-      <c r="B132">
-        <v>20</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>5</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>5</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>5</v>
-      </c>
-      <c r="M132">
-        <v>5</v>
-      </c>
-      <c r="N132">
-        <v>5</v>
-      </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>0</v>
-      </c>
-      <c r="R132">
-        <v>0</v>
-      </c>
-      <c r="S132">
-        <v>5</v>
-      </c>
-      <c r="T132">
-        <v>0</v>
-      </c>
-      <c r="U132">
-        <v>5</v>
-      </c>
-      <c r="V132">
-        <v>5</v>
-      </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-      <c r="X132">
-        <v>0</v>
-      </c>
-      <c r="Y132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>18</v>
-      </c>
-      <c r="B133">
-        <v>15</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
       <c r="J133">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="L133">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M133">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -10555,84 +10555,84 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R133">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S133">
         <v>5</v>
       </c>
       <c r="T133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V133">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X133">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B134">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G134">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J134">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K134">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M134">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N134">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="O134">
         <v>0</v>
       </c>
       <c r="P134">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -10641,430 +10641,430 @@
         <v>0</v>
       </c>
       <c r="S134">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="T134">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U134">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="V134">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W134">
         <v>3</v>
       </c>
       <c r="X134">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y134">
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
+        <v>10</v>
+      </c>
+      <c r="J135">
+        <v>20</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>20</v>
+      </c>
+      <c r="M135">
+        <v>10</v>
+      </c>
+      <c r="N135">
+        <v>10</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>20</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>15</v>
+      </c>
+      <c r="V135">
+        <v>10</v>
+      </c>
+      <c r="W135">
+        <v>2</v>
+      </c>
+      <c r="X135">
+        <v>5</v>
+      </c>
+      <c r="Y135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>72</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>40</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>50</v>
+      </c>
+      <c r="J136">
+        <v>55</v>
+      </c>
+      <c r="K136">
+        <v>40</v>
+      </c>
+      <c r="L136">
         <v>45</v>
       </c>
-      <c r="J135">
-        <v>40</v>
-      </c>
-      <c r="K135">
-        <v>35</v>
-      </c>
-      <c r="L135">
+      <c r="M136">
+        <v>30</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>30</v>
+      </c>
+      <c r="P136">
+        <v>50</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>25</v>
+      </c>
+      <c r="S136">
+        <v>55</v>
+      </c>
+      <c r="T136">
+        <v>50</v>
+      </c>
+      <c r="U136">
+        <v>55</v>
+      </c>
+      <c r="V136">
+        <v>55</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>15</v>
+      </c>
+      <c r="Y136">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>32</v>
+      </c>
+      <c r="B137">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>20</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>15</v>
+      </c>
+      <c r="K137">
+        <v>5</v>
+      </c>
+      <c r="L137">
+        <v>15</v>
+      </c>
+      <c r="M137">
+        <v>15</v>
+      </c>
+      <c r="N137">
+        <v>10</v>
+      </c>
+      <c r="O137">
+        <v>15</v>
+      </c>
+      <c r="P137">
+        <v>15</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>15</v>
+      </c>
+      <c r="U137">
+        <v>15</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>55</v>
+      </c>
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>40</v>
+      </c>
+      <c r="J138">
+        <v>40</v>
+      </c>
+      <c r="K138">
+        <v>30</v>
+      </c>
+      <c r="L138">
+        <v>40</v>
+      </c>
+      <c r="M138">
+        <v>30</v>
+      </c>
+      <c r="N138">
+        <v>10</v>
+      </c>
+      <c r="O138">
+        <v>40</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>10</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>40</v>
+      </c>
+      <c r="U138">
+        <v>40</v>
+      </c>
+      <c r="V138">
+        <v>40</v>
+      </c>
+      <c r="W138">
+        <v>1</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>75</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>10</v>
+      </c>
+      <c r="E139">
         <v>45</v>
       </c>
-      <c r="M135">
-        <v>30</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>35</v>
-      </c>
-      <c r="P135">
-        <v>40</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
-      <c r="T135">
-        <v>40</v>
-      </c>
-      <c r="U135">
-        <v>0</v>
-      </c>
-      <c r="V135">
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>15</v>
+      </c>
+      <c r="J139">
+        <v>60</v>
+      </c>
+      <c r="K139">
+        <v>40</v>
+      </c>
+      <c r="L139">
+        <v>15</v>
+      </c>
+      <c r="M139">
+        <v>10</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>10</v>
+      </c>
+      <c r="P139">
+        <v>15</v>
+      </c>
+      <c r="Q139">
+        <v>10</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
         <v>45</v>
       </c>
-      <c r="W135">
-        <v>3</v>
-      </c>
-      <c r="X135">
-        <v>5</v>
-      </c>
-      <c r="Y135">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>51</v>
-      </c>
-      <c r="B136">
-        <v>25</v>
-      </c>
-      <c r="C136">
-        <v>0.5</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>5</v>
-      </c>
-      <c r="F136">
-        <v>25</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>35</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>30</v>
-      </c>
-      <c r="L136">
-        <v>35</v>
-      </c>
-      <c r="M136">
-        <v>35</v>
-      </c>
-      <c r="N136">
-        <v>35</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>35</v>
-      </c>
-      <c r="S136">
-        <v>35</v>
-      </c>
-      <c r="T136">
-        <v>30</v>
-      </c>
-      <c r="U136">
-        <v>35</v>
-      </c>
-      <c r="V136">
-        <v>35</v>
-      </c>
-      <c r="W136">
-        <v>2</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
-      </c>
-      <c r="Y136">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>58</v>
-      </c>
-      <c r="B137">
-        <v>20</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>20</v>
-      </c>
-      <c r="E137">
-        <v>15</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>45</v>
-      </c>
-      <c r="J137">
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>10</v>
+      </c>
+      <c r="V139">
+        <v>15</v>
+      </c>
+      <c r="W139">
+        <v>4</v>
+      </c>
+      <c r="X139">
         <v>50</v>
       </c>
-      <c r="K137">
-        <v>40</v>
-      </c>
-      <c r="L137">
-        <v>50</v>
-      </c>
-      <c r="M137">
-        <v>25</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
-        <v>10</v>
-      </c>
-      <c r="Q137">
-        <v>50</v>
-      </c>
-      <c r="R137">
-        <v>10</v>
-      </c>
-      <c r="S137">
-        <v>5</v>
-      </c>
-      <c r="T137">
-        <v>0</v>
-      </c>
-      <c r="U137">
-        <v>0</v>
-      </c>
-      <c r="V137">
-        <v>45</v>
-      </c>
-      <c r="W137">
-        <v>4</v>
-      </c>
-      <c r="X137">
-        <v>10</v>
-      </c>
-      <c r="Y137">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>54</v>
-      </c>
-      <c r="B138">
-        <v>25</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>5</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>30</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>5</v>
-      </c>
-      <c r="J138">
-        <v>20</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>25</v>
-      </c>
-      <c r="M138">
-        <v>15</v>
-      </c>
-      <c r="N138">
-        <v>15</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
-        <v>25</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-      <c r="S138">
-        <v>15</v>
-      </c>
-      <c r="T138">
-        <v>0</v>
-      </c>
-      <c r="U138">
-        <v>5</v>
-      </c>
-      <c r="V138">
-        <v>10</v>
-      </c>
-      <c r="W138">
-        <v>3</v>
-      </c>
-      <c r="X138">
-        <v>15</v>
-      </c>
-      <c r="Y138">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>35</v>
-      </c>
-      <c r="B139">
-        <v>15</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>5</v>
-      </c>
-      <c r="E139">
-        <v>10</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>10</v>
-      </c>
-      <c r="J139">
-        <v>20</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>20</v>
-      </c>
-      <c r="M139">
-        <v>10</v>
-      </c>
-      <c r="N139">
-        <v>10</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <v>20</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-      <c r="S139">
-        <v>0</v>
-      </c>
-      <c r="T139">
-        <v>0</v>
-      </c>
-      <c r="U139">
-        <v>15</v>
-      </c>
-      <c r="V139">
-        <v>10</v>
-      </c>
-      <c r="W139">
-        <v>2</v>
-      </c>
-      <c r="X139">
-        <v>5</v>
-      </c>
       <c r="Y139">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B140">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E140">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -11073,448 +11073,448 @@
         <v>0</v>
       </c>
       <c r="I140">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J140">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K140">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M140">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N140">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O140">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P140">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="Q140">
         <v>5</v>
       </c>
       <c r="R140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T140">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U140">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V140">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W140">
         <v>3</v>
       </c>
       <c r="X140">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y140">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B141">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>30</v>
+      </c>
+      <c r="F141">
+        <v>5</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>40</v>
+      </c>
+      <c r="J141">
+        <v>40</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>40</v>
+      </c>
+      <c r="M141">
+        <v>20</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>30</v>
+      </c>
+      <c r="Q141">
+        <v>5</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>5</v>
+      </c>
+      <c r="T141">
+        <v>15</v>
+      </c>
+      <c r="U141">
+        <v>25</v>
+      </c>
+      <c r="V141">
+        <v>40</v>
+      </c>
+      <c r="W141">
+        <v>2</v>
+      </c>
+      <c r="X141">
+        <v>15</v>
+      </c>
+      <c r="Y141">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>61</v>
+      </c>
+      <c r="B142">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>30</v>
+      </c>
+      <c r="H142">
+        <v>30</v>
+      </c>
+      <c r="I142">
+        <v>45</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>45</v>
+      </c>
+      <c r="L142">
+        <v>45</v>
+      </c>
+      <c r="M142">
+        <v>30</v>
+      </c>
+      <c r="N142">
+        <v>40</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>25</v>
+      </c>
+      <c r="U142">
+        <v>45</v>
+      </c>
+      <c r="V142">
+        <v>45</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>24</v>
+      </c>
+      <c r="B143">
+        <v>20</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>15</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>10</v>
+      </c>
+      <c r="M143">
+        <v>10</v>
+      </c>
+      <c r="N143">
+        <v>10</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>10</v>
+      </c>
+      <c r="U143">
+        <v>5</v>
+      </c>
+      <c r="V143">
+        <v>10</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>55</v>
+      </c>
+      <c r="B144">
+        <v>25</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+      <c r="G144">
+        <v>30</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>30</v>
+      </c>
+      <c r="J144">
+        <v>35</v>
+      </c>
+      <c r="K144">
+        <v>40</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>30</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>35</v>
+      </c>
+      <c r="Q144">
+        <v>5</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>20</v>
+      </c>
+      <c r="U144">
+        <v>20</v>
+      </c>
+      <c r="V144">
+        <v>30</v>
+      </c>
+      <c r="W144">
+        <v>2</v>
+      </c>
+      <c r="X144">
+        <v>25</v>
+      </c>
+      <c r="Y144">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>59</v>
+      </c>
+      <c r="B145">
+        <v>25</v>
+      </c>
+      <c r="C145">
         <v>1</v>
       </c>
-      <c r="D141">
-        <v>5</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>63</v>
-      </c>
-      <c r="G141">
-        <v>63</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>35</v>
-      </c>
-      <c r="J141">
-        <v>35</v>
-      </c>
-      <c r="K141">
-        <v>35</v>
-      </c>
-      <c r="L141">
-        <v>35</v>
-      </c>
-      <c r="M141">
-        <v>35</v>
-      </c>
-      <c r="N141">
-        <v>30</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-      <c r="Q141">
-        <v>0</v>
-      </c>
-      <c r="R141">
-        <v>20</v>
-      </c>
-      <c r="S141">
-        <v>30</v>
-      </c>
-      <c r="T141">
-        <v>30</v>
-      </c>
-      <c r="U141">
-        <v>35</v>
-      </c>
-      <c r="V141">
-        <v>35</v>
-      </c>
-      <c r="W141">
-        <v>1</v>
-      </c>
-      <c r="X141">
-        <v>25</v>
-      </c>
-      <c r="Y141">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>36</v>
-      </c>
-      <c r="B142">
-        <v>25</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>15</v>
-      </c>
-      <c r="E142">
-        <v>5</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>20</v>
-      </c>
-      <c r="K142">
-        <v>20</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>25</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142">
-        <v>0</v>
-      </c>
-      <c r="Q142">
-        <v>5</v>
-      </c>
-      <c r="R142">
-        <v>0</v>
-      </c>
-      <c r="S142">
-        <v>5</v>
-      </c>
-      <c r="T142">
-        <v>0</v>
-      </c>
-      <c r="U142">
-        <v>0</v>
-      </c>
-      <c r="V142">
-        <v>0</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>62</v>
-      </c>
-      <c r="B143">
-        <v>30</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>10</v>
-      </c>
-      <c r="E143">
-        <v>25</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>40</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>45</v>
       </c>
-      <c r="J143">
+      <c r="J145">
         <v>45</v>
       </c>
-      <c r="K143">
+      <c r="K145">
+        <v>35</v>
+      </c>
+      <c r="L145">
+        <v>30</v>
+      </c>
+      <c r="M145">
+        <v>30</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
         <v>45</v>
       </c>
-      <c r="L143">
-        <v>30</v>
-      </c>
-      <c r="M143">
-        <v>15</v>
-      </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143">
-        <v>30</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>0</v>
-      </c>
-      <c r="S143">
-        <v>0</v>
-      </c>
-      <c r="T143">
-        <v>0</v>
-      </c>
-      <c r="U143">
-        <v>5</v>
-      </c>
-      <c r="V143">
-        <v>5</v>
-      </c>
-      <c r="W143">
+      <c r="U145">
+        <v>20</v>
+      </c>
+      <c r="V145">
+        <v>45</v>
+      </c>
+      <c r="W145">
         <v>2</v>
       </c>
-      <c r="X143">
-        <v>5</v>
-      </c>
-      <c r="Y143">
+      <c r="X145">
+        <v>25</v>
+      </c>
+      <c r="Y145">
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>72</v>
-      </c>
-      <c r="B144">
-        <v>25</v>
-      </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-      <c r="D144">
-        <v>5</v>
-      </c>
-      <c r="E144">
-        <v>5</v>
-      </c>
-      <c r="F144">
-        <v>40</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>50</v>
-      </c>
-      <c r="J144">
-        <v>55</v>
-      </c>
-      <c r="K144">
-        <v>40</v>
-      </c>
-      <c r="L144">
-        <v>45</v>
-      </c>
-      <c r="M144">
-        <v>30</v>
-      </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <v>30</v>
-      </c>
-      <c r="P144">
-        <v>50</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>25</v>
-      </c>
-      <c r="S144">
-        <v>55</v>
-      </c>
-      <c r="T144">
-        <v>50</v>
-      </c>
-      <c r="U144">
-        <v>55</v>
-      </c>
-      <c r="V144">
-        <v>55</v>
-      </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <v>15</v>
-      </c>
-      <c r="Y144">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>32</v>
-      </c>
-      <c r="B145">
-        <v>25</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>20</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>15</v>
-      </c>
-      <c r="K145">
-        <v>5</v>
-      </c>
-      <c r="L145">
-        <v>15</v>
-      </c>
-      <c r="M145">
-        <v>15</v>
-      </c>
-      <c r="N145">
-        <v>10</v>
-      </c>
-      <c r="O145">
-        <v>15</v>
-      </c>
-      <c r="P145">
-        <v>15</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>0</v>
-      </c>
-      <c r="S145">
-        <v>0</v>
-      </c>
-      <c r="T145">
-        <v>15</v>
-      </c>
-      <c r="U145">
-        <v>15</v>
-      </c>
-      <c r="V145">
-        <v>0</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B146">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -11526,34 +11526,34 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G146">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I146">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J146">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K146">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L146">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M146">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N146">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O146">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -11562,202 +11562,202 @@
         <v>0</v>
       </c>
       <c r="R146">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S146">
         <v>0</v>
       </c>
       <c r="T146">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="U146">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="V146">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X146">
         <v>0</v>
       </c>
       <c r="Y146">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>75</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C147">
+        <v>63</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>57</v>
+      </c>
+      <c r="J147">
+        <v>57</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>15</v>
+      </c>
+      <c r="M147">
+        <v>20</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>20</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>10</v>
+      </c>
+      <c r="S147">
+        <v>10</v>
+      </c>
+      <c r="T147">
+        <v>25</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>60</v>
+      </c>
+      <c r="W147">
         <v>3</v>
       </c>
-      <c r="D147">
-        <v>10</v>
-      </c>
-      <c r="E147">
-        <v>45</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>15</v>
-      </c>
-      <c r="J147">
-        <v>60</v>
-      </c>
-      <c r="K147">
-        <v>40</v>
-      </c>
-      <c r="L147">
-        <v>15</v>
-      </c>
-      <c r="M147">
-        <v>10</v>
-      </c>
-      <c r="N147">
-        <v>0</v>
-      </c>
-      <c r="O147">
-        <v>10</v>
-      </c>
-      <c r="P147">
-        <v>15</v>
-      </c>
-      <c r="Q147">
-        <v>10</v>
-      </c>
-      <c r="R147">
-        <v>0</v>
-      </c>
-      <c r="S147">
-        <v>45</v>
-      </c>
-      <c r="T147">
-        <v>0</v>
-      </c>
-      <c r="U147">
-        <v>10</v>
-      </c>
-      <c r="V147">
-        <v>15</v>
-      </c>
-      <c r="W147">
-        <v>4</v>
-      </c>
       <c r="X147">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Y147">
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B148">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J148">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K148">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="L148">
         <v>20</v>
       </c>
       <c r="M148">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O148">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P148">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q148">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="R148">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="S148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T148">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U148">
         <v>30</v>
       </c>
       <c r="V148">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X148">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y148">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B149">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -11766,16 +11766,16 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J149">
         <v>40</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L149">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M149">
         <v>20</v>
@@ -11787,22 +11787,22 @@
         <v>0</v>
       </c>
       <c r="P149">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R149">
         <v>0</v>
       </c>
       <c r="S149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T149">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="U149">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V149">
         <v>40</v>
@@ -11811,883 +11811,883 @@
         <v>2</v>
       </c>
       <c r="X149">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y149">
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B150">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G150">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H150">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I150">
+        <v>40</v>
+      </c>
+      <c r="J150">
+        <v>40</v>
+      </c>
+      <c r="K150">
+        <v>35</v>
+      </c>
+      <c r="L150">
+        <v>40</v>
+      </c>
+      <c r="M150">
+        <v>20</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>30</v>
+      </c>
+      <c r="Q150">
+        <v>10</v>
+      </c>
+      <c r="R150">
+        <v>5</v>
+      </c>
+      <c r="S150">
+        <v>25</v>
+      </c>
+      <c r="T150">
+        <v>30</v>
+      </c>
+      <c r="U150">
+        <v>30</v>
+      </c>
+      <c r="V150">
+        <v>30</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>25</v>
+      </c>
+      <c r="Y150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>64</v>
+      </c>
+      <c r="B151">
+        <v>63</v>
+      </c>
+      <c r="C151">
+        <v>63</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>10</v>
+      </c>
+      <c r="G151">
+        <v>10</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>40</v>
+      </c>
+      <c r="J151">
+        <v>40</v>
+      </c>
+      <c r="K151">
         <v>45</v>
       </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
+      <c r="L151">
+        <v>40</v>
+      </c>
+      <c r="M151">
+        <v>20</v>
+      </c>
+      <c r="N151">
+        <v>25</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>10</v>
+      </c>
+      <c r="R151">
+        <v>15</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>40</v>
+      </c>
+      <c r="W151">
+        <v>3</v>
+      </c>
+      <c r="X151">
+        <v>20</v>
+      </c>
+      <c r="Y151">
         <v>45</v>
       </c>
-      <c r="L150">
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>63</v>
+      </c>
+      <c r="B152">
+        <v>20</v>
+      </c>
+      <c r="C152">
+        <v>63</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>25</v>
+      </c>
+      <c r="F152">
+        <v>5</v>
+      </c>
+      <c r="G152">
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>5</v>
+      </c>
+      <c r="I152">
+        <v>40</v>
+      </c>
+      <c r="J152">
+        <v>55</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>60</v>
+      </c>
+      <c r="M152">
+        <v>25</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>63</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>15</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>30</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>60</v>
+      </c>
+      <c r="W152">
+        <v>3</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>64</v>
+      </c>
+      <c r="B153">
+        <v>25</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>63</v>
+      </c>
+      <c r="E153">
+        <v>63</v>
+      </c>
+      <c r="F153">
+        <v>63</v>
+      </c>
+      <c r="G153">
+        <v>63</v>
+      </c>
+      <c r="H153">
+        <v>63</v>
+      </c>
+      <c r="I153">
+        <v>50</v>
+      </c>
+      <c r="J153">
+        <v>50</v>
+      </c>
+      <c r="K153">
+        <v>25</v>
+      </c>
+      <c r="L153">
+        <v>10</v>
+      </c>
+      <c r="M153">
+        <v>25</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>63</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>15</v>
+      </c>
+      <c r="T153">
+        <v>30</v>
+      </c>
+      <c r="U153">
+        <v>50</v>
+      </c>
+      <c r="V153">
+        <v>63</v>
+      </c>
+      <c r="W153">
+        <v>1</v>
+      </c>
+      <c r="X153">
+        <v>25</v>
+      </c>
+      <c r="Y153">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>21</v>
+      </c>
+      <c r="B154">
+        <v>20</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>5</v>
+      </c>
+      <c r="J154">
+        <v>5</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>5</v>
+      </c>
+      <c r="M154">
+        <v>5</v>
+      </c>
+      <c r="N154">
+        <v>5</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>5</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>5</v>
+      </c>
+      <c r="T154">
+        <v>5</v>
+      </c>
+      <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>72</v>
+      </c>
+      <c r="B155">
+        <v>20</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155">
+        <v>20</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>55</v>
+      </c>
+      <c r="J155">
+        <v>55</v>
+      </c>
+      <c r="K155">
+        <v>50</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>30</v>
+      </c>
+      <c r="N155">
+        <v>25</v>
+      </c>
+      <c r="O155">
+        <v>35</v>
+      </c>
+      <c r="P155">
+        <v>35</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>25</v>
+      </c>
+      <c r="T155">
+        <v>20</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>55</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>10</v>
+      </c>
+      <c r="Y155">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>63</v>
+      </c>
+      <c r="B156">
+        <v>20</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
         <v>45</v>
       </c>
-      <c r="M150">
-        <v>30</v>
-      </c>
-      <c r="N150">
-        <v>40</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>0</v>
-      </c>
-      <c r="R150">
-        <v>0</v>
-      </c>
-      <c r="S150">
-        <v>0</v>
-      </c>
-      <c r="T150">
-        <v>25</v>
-      </c>
-      <c r="U150">
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
         <v>45</v>
       </c>
-      <c r="V150">
+      <c r="J156">
         <v>45</v>
       </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
-      <c r="Y150">
+      <c r="K156">
         <v>45</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>24</v>
-      </c>
-      <c r="B151">
-        <v>20</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>15</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>10</v>
-      </c>
-      <c r="M151">
-        <v>10</v>
-      </c>
-      <c r="N151">
-        <v>10</v>
-      </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>0</v>
-      </c>
-      <c r="S151">
-        <v>0</v>
-      </c>
-      <c r="T151">
-        <v>10</v>
-      </c>
-      <c r="U151">
-        <v>5</v>
-      </c>
-      <c r="V151">
-        <v>10</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>55</v>
-      </c>
-      <c r="B152">
-        <v>25</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>10</v>
-      </c>
-      <c r="G152">
-        <v>30</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>30</v>
-      </c>
-      <c r="J152">
-        <v>35</v>
-      </c>
-      <c r="K152">
-        <v>40</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>30</v>
-      </c>
-      <c r="N152">
-        <v>0</v>
-      </c>
-      <c r="O152">
-        <v>0</v>
-      </c>
-      <c r="P152">
-        <v>35</v>
-      </c>
-      <c r="Q152">
-        <v>5</v>
-      </c>
-      <c r="R152">
-        <v>0</v>
-      </c>
-      <c r="S152">
-        <v>0</v>
-      </c>
-      <c r="T152">
-        <v>20</v>
-      </c>
-      <c r="U152">
-        <v>20</v>
-      </c>
-      <c r="V152">
-        <v>30</v>
-      </c>
-      <c r="W152">
-        <v>2</v>
-      </c>
-      <c r="X152">
-        <v>25</v>
-      </c>
-      <c r="Y152">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>59</v>
-      </c>
-      <c r="B153">
-        <v>25</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>40</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>45</v>
-      </c>
-      <c r="J153">
-        <v>45</v>
-      </c>
-      <c r="K153">
-        <v>35</v>
-      </c>
-      <c r="L153">
-        <v>30</v>
-      </c>
-      <c r="M153">
-        <v>30</v>
-      </c>
-      <c r="N153">
-        <v>0</v>
-      </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-      <c r="Q153">
-        <v>0</v>
-      </c>
-      <c r="R153">
-        <v>0</v>
-      </c>
-      <c r="S153">
-        <v>0</v>
-      </c>
-      <c r="T153">
-        <v>45</v>
-      </c>
-      <c r="U153">
-        <v>20</v>
-      </c>
-      <c r="V153">
-        <v>45</v>
-      </c>
-      <c r="W153">
-        <v>2</v>
-      </c>
-      <c r="X153">
-        <v>25</v>
-      </c>
-      <c r="Y153">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>38</v>
-      </c>
-      <c r="B154">
-        <v>30</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>10</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>5</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>20</v>
-      </c>
-      <c r="I154">
-        <v>25</v>
-      </c>
-      <c r="J154">
-        <v>20</v>
-      </c>
-      <c r="K154">
-        <v>20</v>
-      </c>
-      <c r="L154">
-        <v>25</v>
-      </c>
-      <c r="M154">
-        <v>25</v>
-      </c>
-      <c r="N154">
-        <v>20</v>
-      </c>
-      <c r="O154">
-        <v>15</v>
-      </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>5</v>
-      </c>
-      <c r="S154">
-        <v>0</v>
-      </c>
-      <c r="T154">
-        <v>15</v>
-      </c>
-      <c r="U154">
-        <v>15</v>
-      </c>
-      <c r="V154">
-        <v>20</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-      <c r="X154">
-        <v>0</v>
-      </c>
-      <c r="Y154">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>75</v>
-      </c>
-      <c r="B155">
-        <v>63</v>
-      </c>
-      <c r="C155">
-        <v>63</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>57</v>
-      </c>
-      <c r="J155">
-        <v>57</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>15</v>
-      </c>
-      <c r="M155">
-        <v>20</v>
-      </c>
-      <c r="N155">
-        <v>0</v>
-      </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-      <c r="P155">
-        <v>20</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155">
-        <v>10</v>
-      </c>
-      <c r="S155">
-        <v>10</v>
-      </c>
-      <c r="T155">
-        <v>25</v>
-      </c>
-      <c r="U155">
-        <v>0</v>
-      </c>
-      <c r="V155">
-        <v>60</v>
-      </c>
-      <c r="W155">
-        <v>3</v>
-      </c>
-      <c r="X155">
-        <v>20</v>
-      </c>
-      <c r="Y155">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>79</v>
-      </c>
-      <c r="B156">
-        <v>63</v>
-      </c>
-      <c r="C156">
-        <v>63</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>35</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156">
-        <v>65</v>
-      </c>
-      <c r="J156">
-        <v>65</v>
-      </c>
-      <c r="K156">
-        <v>60</v>
-      </c>
       <c r="L156">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M156">
         <v>45</v>
       </c>
       <c r="N156">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O156">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P156">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q156">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="R156">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="S156">
         <v>0</v>
       </c>
       <c r="T156">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="U156">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="V156">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X156">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y156">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157">
+        <v>31</v>
+      </c>
+      <c r="B157">
+        <v>25</v>
+      </c>
+      <c r="C157">
+        <v>0.5</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>10</v>
+      </c>
+      <c r="F157">
+        <v>10</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>5</v>
+      </c>
+      <c r="J157">
+        <v>10</v>
+      </c>
+      <c r="K157">
+        <v>15</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>25</v>
+      </c>
+      <c r="N157">
+        <v>15</v>
+      </c>
+      <c r="O157">
+        <v>15</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>5</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>15</v>
+      </c>
+      <c r="U157">
+        <v>15</v>
+      </c>
+      <c r="V157">
+        <v>15</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>31</v>
+      </c>
+      <c r="B158">
+        <v>25</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>10</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>15</v>
+      </c>
+      <c r="K158">
+        <v>10</v>
+      </c>
+      <c r="L158">
+        <v>15</v>
+      </c>
+      <c r="M158">
+        <v>15</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>10</v>
+      </c>
+      <c r="R158">
+        <v>5</v>
+      </c>
+      <c r="S158">
+        <v>10</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>15</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>24</v>
+      </c>
+      <c r="B159">
+        <v>20</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>5</v>
+      </c>
+      <c r="J159">
+        <v>5</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>5</v>
+      </c>
+      <c r="M159">
+        <v>5</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>5</v>
+      </c>
+      <c r="V159">
+        <v>5</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>61</v>
       </c>
-      <c r="B157">
-        <v>63</v>
-      </c>
-      <c r="C157">
-        <v>63</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>5</v>
-      </c>
-      <c r="J157">
-        <v>40</v>
-      </c>
-      <c r="K157">
-        <v>30</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <v>20</v>
-      </c>
-      <c r="N157">
-        <v>0</v>
-      </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-      <c r="P157">
-        <v>0</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
-        <v>0</v>
-      </c>
-      <c r="S157">
-        <v>0</v>
-      </c>
-      <c r="T157">
-        <v>40</v>
-      </c>
-      <c r="U157">
-        <v>30</v>
-      </c>
-      <c r="V157">
-        <v>40</v>
-      </c>
-      <c r="W157">
+      <c r="B160">
+        <v>20</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160">
+        <v>30</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>45</v>
+      </c>
+      <c r="J160">
+        <v>45</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>45</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>35</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>10</v>
+      </c>
+      <c r="T160">
+        <v>30</v>
+      </c>
+      <c r="U160">
+        <v>35</v>
+      </c>
+      <c r="V160">
+        <v>45</v>
+      </c>
+      <c r="W160">
         <v>2</v>
       </c>
-      <c r="X157">
-        <v>5</v>
-      </c>
-      <c r="Y157">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>54</v>
-      </c>
-      <c r="B158">
-        <v>63</v>
-      </c>
-      <c r="C158">
-        <v>63</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>15</v>
-      </c>
-      <c r="G158">
-        <v>10</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>40</v>
-      </c>
-      <c r="J158">
-        <v>40</v>
-      </c>
-      <c r="K158">
-        <v>35</v>
-      </c>
-      <c r="L158">
-        <v>40</v>
-      </c>
-      <c r="M158">
-        <v>20</v>
-      </c>
-      <c r="N158">
-        <v>0</v>
-      </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-      <c r="P158">
-        <v>30</v>
-      </c>
-      <c r="Q158">
-        <v>10</v>
-      </c>
-      <c r="R158">
-        <v>5</v>
-      </c>
-      <c r="S158">
-        <v>25</v>
-      </c>
-      <c r="T158">
-        <v>30</v>
-      </c>
-      <c r="U158">
-        <v>30</v>
-      </c>
-      <c r="V158">
-        <v>30</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>25</v>
-      </c>
-      <c r="Y158">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>64</v>
-      </c>
-      <c r="B159">
-        <v>63</v>
-      </c>
-      <c r="C159">
-        <v>63</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>10</v>
-      </c>
-      <c r="G159">
-        <v>10</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>40</v>
-      </c>
-      <c r="J159">
-        <v>40</v>
-      </c>
-      <c r="K159">
+      <c r="X160">
+        <v>30</v>
+      </c>
+      <c r="Y160">
         <v>45</v>
       </c>
-      <c r="L159">
-        <v>40</v>
-      </c>
-      <c r="M159">
-        <v>20</v>
-      </c>
-      <c r="N159">
-        <v>25</v>
-      </c>
-      <c r="O159">
-        <v>0</v>
-      </c>
-      <c r="P159">
-        <v>0</v>
-      </c>
-      <c r="Q159">
-        <v>10</v>
-      </c>
-      <c r="R159">
-        <v>15</v>
-      </c>
-      <c r="S159">
-        <v>0</v>
-      </c>
-      <c r="T159">
-        <v>0</v>
-      </c>
-      <c r="U159">
-        <v>0</v>
-      </c>
-      <c r="V159">
-        <v>40</v>
-      </c>
-      <c r="W159">
-        <v>3</v>
-      </c>
-      <c r="X159">
-        <v>20</v>
-      </c>
-      <c r="Y159">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>63</v>
-      </c>
-      <c r="B160">
-        <v>20</v>
-      </c>
-      <c r="C160">
-        <v>63</v>
-      </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-      <c r="E160">
-        <v>25</v>
-      </c>
-      <c r="F160">
-        <v>5</v>
-      </c>
-      <c r="G160">
-        <v>5</v>
-      </c>
-      <c r="H160">
-        <v>5</v>
-      </c>
-      <c r="I160">
-        <v>40</v>
-      </c>
-      <c r="J160">
-        <v>55</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>60</v>
-      </c>
-      <c r="M160">
-        <v>25</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="P160">
-        <v>63</v>
-      </c>
-      <c r="Q160">
-        <v>0</v>
-      </c>
-      <c r="R160">
-        <v>15</v>
-      </c>
-      <c r="S160">
-        <v>0</v>
-      </c>
-      <c r="T160">
-        <v>30</v>
-      </c>
-      <c r="U160">
-        <v>0</v>
-      </c>
-      <c r="V160">
-        <v>60</v>
-      </c>
-      <c r="W160">
-        <v>3</v>
-      </c>
-      <c r="X160">
-        <v>0</v>
-      </c>
-      <c r="Y160">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B161">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G161">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H161">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>50</v>
@@ -12696,84 +12696,90 @@
         <v>50</v>
       </c>
       <c r="K161">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L161">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M161">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N161">
         <v>0</v>
       </c>
       <c r="O161">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P161">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R161">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S161">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>10</v>
       </c>
       <c r="U161">
+        <v>10</v>
+      </c>
+      <c r="V161">
         <v>50</v>
       </c>
-      <c r="V161">
-        <v>63</v>
-      </c>
       <c r="W161">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
       </c>
       <c r="Y161">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B162">
         <v>20</v>
       </c>
       <c r="C162">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F162">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="H162">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J162">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K162">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L162">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M162">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -12781,37 +12787,40 @@
       <c r="O162">
         <v>0</v>
       </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
       <c r="Q162">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S162">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="T162">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U162">
         <v>0</v>
       </c>
       <c r="V162">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="W162">
         <v>0</v>
       </c>
       <c r="X162">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="Y162">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B163">
         <v>20</v>
@@ -12823,7 +12832,7 @@
         <v>5</v>
       </c>
       <c r="E163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -12835,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="I163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>5</v>
@@ -12859,22 +12868,22 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R163">
         <v>0</v>
       </c>
       <c r="S163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T163">
         <v>5</v>
       </c>
       <c r="U163">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V163">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -12886,101 +12895,101 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B164">
         <v>20</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D164">
         <v>5</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G164">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J164">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K164">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L164">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M164">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N164">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O164">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P164">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q164">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S164">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T164">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U164">
         <v>0</v>
       </c>
       <c r="V164">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X164">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y164">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>63</v>
       </c>
       <c r="B165">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F165">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -12998,63 +13007,66 @@
         <v>45</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M165">
+        <v>25</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
         <v>45</v>
       </c>
-      <c r="N165">
-        <v>0</v>
-      </c>
-      <c r="O165">
-        <v>20</v>
-      </c>
       <c r="P165">
+        <v>40</v>
+      </c>
+      <c r="Q165">
+        <v>10</v>
+      </c>
+      <c r="R165">
+        <v>5</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>10</v>
+      </c>
+      <c r="U165">
         <v>45</v>
-      </c>
-      <c r="Q165">
-        <v>5</v>
-      </c>
-      <c r="R165">
-        <v>5</v>
-      </c>
-      <c r="S165">
-        <v>0</v>
-      </c>
-      <c r="T165">
-        <v>20</v>
-      </c>
-      <c r="U165">
-        <v>15</v>
       </c>
       <c r="V165">
         <v>45</v>
       </c>
       <c r="W165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y165">
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="B166">
+        <v>20</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F166">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -13066,22 +13078,22 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M166">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N166">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -13090,75 +13102,81 @@
         <v>5</v>
       </c>
       <c r="R166">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S166">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T166">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U166">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="V166">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="W166">
         <v>0</v>
       </c>
       <c r="X166">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y166">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B167">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <v>5</v>
       </c>
       <c r="E167">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J167">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="K167">
+        <v>35</v>
       </c>
       <c r="L167">
         <v>0</v>
       </c>
       <c r="M167">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N167">
         <v>15</v>
       </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
       <c r="P167">
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R167">
         <v>0</v>
@@ -13167,36 +13185,36 @@
         <v>0</v>
       </c>
       <c r="T167">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U167">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V167">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="W167">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X167">
         <v>0</v>
       </c>
       <c r="Y167">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B168">
         <v>25</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -13205,25 +13223,25 @@
         <v>0</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J168">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K168">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L168">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M168">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -13232,25 +13250,25 @@
         <v>0</v>
       </c>
       <c r="P168">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q168">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S168">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="T168">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U168">
         <v>0</v>
       </c>
       <c r="V168">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -13259,12 +13277,12 @@
         <v>0</v>
       </c>
       <c r="Y168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B169">
         <v>20</v>
@@ -13276,25 +13294,31 @@
         <v>5</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>15</v>
+      </c>
       <c r="K169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L169">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -13303,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="P169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -13315,255 +13339,258 @@
         <v>0</v>
       </c>
       <c r="T169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U169">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V169">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W169">
         <v>0</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y169">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B170">
         <v>20</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F170">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J170">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M170">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N170">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O170">
         <v>0</v>
       </c>
       <c r="P170">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q170">
         <v>0</v>
       </c>
       <c r="R170">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S170">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T170">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U170">
         <v>35</v>
       </c>
       <c r="V170">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W170">
         <v>2</v>
       </c>
       <c r="X170">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Y170">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>40</v>
+      </c>
+      <c r="B171">
+        <v>25</v>
+      </c>
+      <c r="C171">
+        <v>0.5</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>20</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>10</v>
+      </c>
+      <c r="J171">
+        <v>10</v>
+      </c>
+      <c r="K171">
+        <v>15</v>
+      </c>
+      <c r="L171">
+        <v>30</v>
+      </c>
+      <c r="M171">
+        <v>35</v>
+      </c>
+      <c r="N171">
+        <v>30</v>
+      </c>
+      <c r="O171">
+        <v>20</v>
+      </c>
+      <c r="P171">
+        <v>30</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>5</v>
+      </c>
+      <c r="T171">
+        <v>20</v>
+      </c>
+      <c r="U171">
+        <v>15</v>
+      </c>
+      <c r="V171">
+        <v>30</v>
+      </c>
+      <c r="W171">
+        <v>1</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>55</v>
+      </c>
+      <c r="B172">
+        <v>20</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>15</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>25</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>25</v>
+      </c>
+      <c r="J172">
+        <v>35</v>
+      </c>
+      <c r="K172">
+        <v>15</v>
+      </c>
+      <c r="L172">
+        <v>55</v>
+      </c>
+      <c r="M172">
+        <v>15</v>
+      </c>
+      <c r="N172">
+        <v>50</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
         <v>45</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>67</v>
-      </c>
-      <c r="B171">
-        <v>20</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>15</v>
-      </c>
-      <c r="G171">
-        <v>30</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>50</v>
-      </c>
-      <c r="J171">
-        <v>50</v>
-      </c>
-      <c r="K171">
-        <v>50</v>
-      </c>
-      <c r="L171">
-        <v>50</v>
-      </c>
-      <c r="M171">
-        <v>50</v>
-      </c>
-      <c r="N171">
-        <v>0</v>
-      </c>
-      <c r="O171">
-        <v>10</v>
-      </c>
-      <c r="P171">
-        <v>0</v>
-      </c>
-      <c r="Q171">
-        <v>10</v>
-      </c>
-      <c r="R171">
-        <v>10</v>
-      </c>
-      <c r="S171">
-        <v>10</v>
-      </c>
-      <c r="T171">
-        <v>10</v>
-      </c>
-      <c r="U171">
-        <v>10</v>
-      </c>
-      <c r="V171">
-        <v>50</v>
-      </c>
-      <c r="W171">
+      <c r="R172">
+        <v>30</v>
+      </c>
+      <c r="S172">
+        <v>10</v>
+      </c>
+      <c r="T172">
+        <v>40</v>
+      </c>
+      <c r="U172">
+        <v>30</v>
+      </c>
+      <c r="V172">
+        <v>30</v>
+      </c>
+      <c r="W172">
         <v>3</v>
       </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>26</v>
-      </c>
-      <c r="B172">
-        <v>20</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>10</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>5</v>
-      </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>10</v>
-      </c>
-      <c r="K172">
-        <v>10</v>
-      </c>
-      <c r="L172">
-        <v>10</v>
-      </c>
-      <c r="M172">
-        <v>10</v>
-      </c>
-      <c r="N172">
-        <v>0</v>
-      </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-      <c r="P172">
-        <v>0</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>0</v>
-      </c>
-      <c r="S172">
-        <v>0</v>
-      </c>
-      <c r="T172">
-        <v>5</v>
-      </c>
-      <c r="U172">
-        <v>0</v>
-      </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
       <c r="X172">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y172">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B173">
         <v>20</v>
@@ -13572,13 +13599,13 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -13590,19 +13617,19 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M173">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N173">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -13611,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R173">
         <v>0</v>
@@ -13623,22 +13650,22 @@
         <v>5</v>
       </c>
       <c r="U173">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V173">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W173">
         <v>0</v>
       </c>
       <c r="X173">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y173">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>54</v>
       </c>
@@ -13715,7 +13742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>63</v>
       </c>
@@ -13792,7 +13819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>24</v>
       </c>
@@ -13869,7 +13896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>53</v>
       </c>
@@ -13946,7 +13973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>68</v>
       </c>
@@ -14023,7 +14050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>28</v>
       </c>
@@ -14100,7 +14127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>64</v>
       </c>
@@ -14177,7 +14204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>40</v>
       </c>
@@ -14254,7 +14281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>55</v>
       </c>
@@ -14286,7 +14313,7 @@
         <v>35</v>
       </c>
       <c r="K182">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L182">
         <v>55</v>
@@ -14331,7 +14358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>21</v>
       </c>
@@ -14408,7 +14435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>28</v>
       </c>
@@ -14485,7 +14512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>64</v>
       </c>
@@ -14562,7 +14589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>40</v>
       </c>
@@ -14639,7 +14666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>55</v>
       </c>
@@ -14716,7 +14743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>21</v>
       </c>

--- a/extract_scores.xlsx
+++ b/extract_scores.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:Y188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y110"/>
+      <selection sqref="A1:Y109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,10 +577,10 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -601,75 +601,75 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4">
         <v>40</v>
       </c>
       <c r="T4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -678,75 +678,75 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y5">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -755,22 +755,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>10</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -779,51 +779,51 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y6">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -832,105 +832,105 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>5</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>10</v>
       </c>
       <c r="U7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W7">
         <v>3</v>
       </c>
       <c r="X7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>25</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -942,42 +942,42 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="V8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y8">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>30</v>
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>30</v>
       </c>
       <c r="V9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>3</v>
       </c>
       <c r="X9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Y9">
         <v>30</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1054,149 +1054,149 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U10">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Y10">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>5</v>
       </c>
       <c r="T11">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1208,31 +1208,31 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K12">
         <v>5</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1241,51 +1241,51 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1294,31 +1294,31 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J13">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1327,27 +1327,27 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y13">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1365,37 +1365,37 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1404,27 +1404,27 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="W14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>5</v>
       </c>
       <c r="Y14">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1451,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1472,39 +1472,39 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1513,226 +1513,226 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y16">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>20</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>5</v>
       </c>
       <c r="Y18">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -1741,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>10</v>
       </c>
       <c r="N19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -1801,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1827,72 +1827,72 @@
         <v>5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V20">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1901,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>50</v>
@@ -1922,16 +1922,16 @@
         <v>50</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1940,16 +1940,16 @@
         <v>10</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U21">
         <v>10</v>
       </c>
       <c r="V21">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="W21">
         <v>2</v>
@@ -1958,27 +1958,27 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1987,60 +1987,60 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N22">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2067,16 +2067,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>10</v>
@@ -2103,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y23">
         <v>5</v>
@@ -2117,19 +2117,19 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2141,22 +2141,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2174,27 +2174,27 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V24">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y24">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -2203,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N25">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -2245,33 +2245,33 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2295,22 +2295,22 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N26">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2328,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -2343,21 +2343,21 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M27">
         <v>10</v>
       </c>
       <c r="N27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -2420,21 +2420,21 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2452,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U28">
         <v>25</v>
       </c>
       <c r="V28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -2497,60 +2497,60 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N29">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2559,78 +2559,78 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V29">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y29">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2639,39 +2639,39 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2680,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2722,33 +2722,33 @@
         <v>5</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y31">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2757,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2781,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2799,18 +2799,18 @@
         <v>5</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -2822,7 +2822,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33">
         <v>5</v>
@@ -2864,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -2887,22 +2887,22 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2911,22 +2911,22 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2938,13 +2938,13 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="T34">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -2953,33 +2953,33 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y34">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2988,37 +2988,37 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="J35">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K35">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S35">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="T35">
         <v>30</v>
@@ -3027,36 +3027,36 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W35">
         <v>2</v>
       </c>
       <c r="X35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y35">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>20</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3065,72 +3065,72 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N36">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T36">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V36">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y36">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -3145,10 +3145,10 @@
         <v>5</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L37">
         <v>10</v>
@@ -3157,31 +3157,31 @@
         <v>10</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3195,90 +3195,90 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P38">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T38">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="U38">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X38">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Y38">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3287,37 +3287,37 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J39">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O39">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3326,69 +3326,69 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="T39">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U39">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="V39">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W39">
         <v>2</v>
       </c>
       <c r="X39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y39">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -3403,33 +3403,33 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3450,19 +3450,19 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -3495,15 +3495,15 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y41">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>15</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>10</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M42">
         <v>10</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -3575,15 +3575,15 @@
         <v>5</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3598,34 +3598,34 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J43">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3637,36 +3637,36 @@
         <v>10</v>
       </c>
       <c r="T43">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U43">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V43">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X43">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="Y43">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3675,66 +3675,66 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I44">
         <v>45</v>
       </c>
       <c r="J44">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K44">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T44">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V44">
+        <v>5</v>
+      </c>
+      <c r="W44">
+        <v>4</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
         <v>50</v>
-      </c>
-      <c r="W44">
-        <v>2</v>
-      </c>
-      <c r="X44">
-        <v>30</v>
-      </c>
-      <c r="Y44">
-        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B45">
         <v>20</v>
@@ -3743,81 +3743,81 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K45">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X45">
         <v>10</v>
       </c>
       <c r="Y45">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3826,31 +3826,31 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K46">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3865,107 +3865,107 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U46">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y46">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K47">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U47">
         <v>15</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y47">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B48">
         <v>20</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -3992,16 +3992,16 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -4010,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -4022,30 +4022,30 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U48">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -4099,13 +4099,13 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
@@ -4196,7 +4196,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>15</v>
@@ -4205,10 +4205,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M51">
         <v>5</v>
@@ -4250,22 +4250,22 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y51">
         <v>5</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B52">
         <v>15</v>
@@ -4285,7 +4285,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4300,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L52">
         <v>5</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4324,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S52">
         <v>5</v>
       </c>
       <c r="T52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4339,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>5</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4374,19 +4374,19 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>5</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4401,22 +4401,22 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54">
         <v>20</v>
@@ -4436,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4451,13 +4451,13 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>5</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L54">
         <v>5</v>
@@ -4487,16 +4487,16 @@
         <v>5</v>
       </c>
       <c r="U54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y54">
         <v>5</v>
@@ -4504,10 +4504,10 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4534,10 +4534,10 @@
         <v>5</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>5</v>
@@ -4546,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4561,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -4635,22 +4635,22 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>5</v>
@@ -4658,19 +4658,19 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4682,19 +4682,19 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4706,51 +4706,51 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y57">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B58">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4759,22 +4759,22 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K58">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M58">
         <v>20</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4786,39 +4786,39 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V58">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X58">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y58">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -4836,75 +4836,75 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J59">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K59">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L59">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N59">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U59">
         <v>15</v>
       </c>
       <c r="V59">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="W59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X59">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y59">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F60">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4913,72 +4913,72 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K60">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L60">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M60">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N60">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="O60">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="P60">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="R60">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V60">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X60">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="Y60">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B61">
         <v>20</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4993,31 +4993,31 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K61">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -5029,30 +5029,30 @@
         <v>5</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X61">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y61">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5067,19 +5067,19 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J62">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -5100,42 +5100,42 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V62">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5144,55 +5144,55 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M63">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T63">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="U63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V63">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Y63">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
@@ -5200,123 +5200,123 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J64">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K64">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L64">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="M64">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N64">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="U64">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V64">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="Y64">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T65">
         <v>10</v>
@@ -5337,21 +5337,21 @@
         <v>10</v>
       </c>
       <c r="V65">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y65">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66">
         <v>20</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5378,22 +5378,22 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M66">
         <v>10</v>
       </c>
       <c r="N66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -5408,10 +5408,10 @@
         <v>5</v>
       </c>
       <c r="T66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>10</v>
@@ -5428,10 +5428,10 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -5455,19 +5455,19 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S67">
         <v>5</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="Y67">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L68">
         <v>5</v>
@@ -5544,7 +5544,7 @@
         <v>5</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T68">
         <v>5</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -5582,16 +5582,16 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>20</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5600,28 +5600,28 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -5630,31 +5630,31 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X69">
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
@@ -5662,10 +5662,10 @@
         <v>67</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5674,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -5686,16 +5686,16 @@
         <v>50</v>
       </c>
       <c r="J70">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K70">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L70">
         <v>50</v>
       </c>
       <c r="M70">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N70">
         <v>30</v>
@@ -5704,13 +5704,13 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q70">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R70">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="U70">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -5731,137 +5731,137 @@
         <v>0</v>
       </c>
       <c r="Y70">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C71">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J71">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K71">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L71">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N71">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P71">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y71">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B72">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D72">
         <v>5</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I72">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J72">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K72">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L72">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O72">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P72">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -5870,119 +5870,119 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="U72">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="V72">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X72">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y72">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B73">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J73">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K73">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L73">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N73">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U73">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V73">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X73">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y73">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -5991,19 +5991,19 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K74">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M74">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -6015,42 +6015,42 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="U74">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="W74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X74">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="D75">
         <v>10</v>
@@ -6059,87 +6059,87 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J75">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K75">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M75">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
       <c r="T75">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V75">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X75">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y75">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B76">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G76">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -6148,16 +6148,16 @@
         <v>35</v>
       </c>
       <c r="J76">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K76">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>35</v>
       </c>
       <c r="M76">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N76">
         <v>35</v>
@@ -6166,13 +6166,13 @@
         <v>0</v>
       </c>
       <c r="P76">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -6181,16 +6181,16 @@
         <v>0</v>
       </c>
       <c r="U76">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="V76">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="W76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X76">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y76">
         <v>35</v>
@@ -6198,22 +6198,22 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -6222,22 +6222,22 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J77">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M77">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N77">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="R77">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -6258,39 +6258,39 @@
         <v>0</v>
       </c>
       <c r="U77">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V77">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X77">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y77">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -6299,22 +6299,22 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L78">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -6335,39 +6335,39 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="V78">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="W78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X78">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y78">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B79">
         <v>20</v>
       </c>
       <c r="C79">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -6376,176 +6376,176 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S79">
         <v>0</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U79">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y79">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J80">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K80">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L80">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>25</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S80">
         <v>0</v>
       </c>
       <c r="T80">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U80">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K81">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M81">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N81">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -6557,36 +6557,36 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T81">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U81">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="V81">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>5</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L82">
         <v>5</v>
@@ -6622,7 +6622,7 @@
         <v>5</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -6640,45 +6640,45 @@
         <v>5</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U82">
         <v>5</v>
       </c>
       <c r="V82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W82">
         <v>0</v>
       </c>
       <c r="X82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y82">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B83">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -6687,25 +6687,25 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K83">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O83">
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -6714,75 +6714,75 @@
         <v>0</v>
       </c>
       <c r="S83">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="T83">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="U83">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="V83">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="W83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X83">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B84">
         <v>20</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J84">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K84">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L84">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M84">
         <v>30</v>
       </c>
       <c r="N84">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P84">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -6791,122 +6791,122 @@
         <v>0</v>
       </c>
       <c r="S84">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T84">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U84">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V84">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W84">
         <v>3</v>
       </c>
       <c r="X84">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Y84">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G85">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J85">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L85">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M85">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O85">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P85">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="T85">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V85">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X85">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y85">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B86">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F86">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -6915,72 +6915,72 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K86">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M86">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N86">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S86">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="V86">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W86">
         <v>2</v>
       </c>
       <c r="X86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y86">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B87">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6992,52 +6992,52 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>20</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
       <c r="P87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R87">
         <v>0</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T87">
         <v>0</v>
       </c>
       <c r="U87">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y87">
         <v>20</v>
@@ -7045,22 +7045,22 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B88">
         <v>25</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E88">
         <v>5</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -7069,75 +7069,75 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J88">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K88">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M88">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S88">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U88">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="V88">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y88">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B89">
         <v>25</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -7146,69 +7146,69 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K89">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="L89">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O89">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P89">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S89">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T89">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="U89">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="V89">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W89">
         <v>0</v>
       </c>
       <c r="X89">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y89">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B90">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7217,235 +7217,235 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J90">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L90">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M90">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N90">
         <v>10</v>
       </c>
       <c r="O90">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="P90">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
       <c r="T90">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="U90">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V90">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X90">
         <v>0</v>
       </c>
       <c r="Y90">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <v>10</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J91">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K91">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L91">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M91">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T91">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U91">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="V91">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X91">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y91">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>15</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>30</v>
+      </c>
+      <c r="J92">
+        <v>30</v>
+      </c>
+      <c r="K92">
+        <v>15</v>
+      </c>
+      <c r="L92">
+        <v>20</v>
+      </c>
+      <c r="M92">
+        <v>20</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>30</v>
+      </c>
+      <c r="P92">
+        <v>30</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
+      </c>
+      <c r="S92">
+        <v>5</v>
+      </c>
+      <c r="T92">
+        <v>30</v>
+      </c>
+      <c r="U92">
+        <v>30</v>
+      </c>
+      <c r="V92">
+        <v>30</v>
+      </c>
+      <c r="W92">
         <v>3</v>
       </c>
-      <c r="D92">
-        <v>10</v>
-      </c>
-      <c r="E92">
-        <v>45</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>15</v>
-      </c>
-      <c r="J92">
-        <v>60</v>
-      </c>
-      <c r="K92">
-        <v>40</v>
-      </c>
-      <c r="L92">
-        <v>15</v>
-      </c>
-      <c r="M92">
-        <v>10</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>10</v>
-      </c>
-      <c r="P92">
-        <v>15</v>
-      </c>
-      <c r="Q92">
-        <v>10</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>45</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>10</v>
-      </c>
-      <c r="V92">
-        <v>15</v>
-      </c>
-      <c r="W92">
-        <v>4</v>
-      </c>
       <c r="X92">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y92">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B93">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -7454,16 +7454,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J93">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K93">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M93">
         <v>20</v>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P93">
         <v>30</v>
@@ -7481,33 +7481,33 @@
         <v>5</v>
       </c>
       <c r="R93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S93">
         <v>5</v>
       </c>
       <c r="T93">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U93">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V93">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y93">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B94">
         <v>25</v>
@@ -7516,114 +7516,114 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I94">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J94">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L94">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M94">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O94">
         <v>0</v>
       </c>
       <c r="P94">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T94">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U94">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="V94">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X94">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y94">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B95">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M95">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N95">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -7641,13 +7641,13 @@
         <v>0</v>
       </c>
       <c r="T95">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="U95">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="V95">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="W95">
         <v>0</v>
@@ -7656,60 +7656,60 @@
         <v>0</v>
       </c>
       <c r="Y95">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -7718,33 +7718,33 @@
         <v>0</v>
       </c>
       <c r="T96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U96">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V96">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="W96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y96">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B97">
         <v>25</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -7753,25 +7753,25 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J97">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M97">
         <v>30</v>
@@ -7783,10 +7783,10 @@
         <v>0</v>
       </c>
       <c r="P97">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -7795,13 +7795,13 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="U97">
         <v>20</v>
       </c>
       <c r="V97">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="W97">
         <v>2</v>
@@ -7810,54 +7810,54 @@
         <v>25</v>
       </c>
       <c r="Y97">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B98">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I98">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J98">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K98">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L98">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M98">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -7866,96 +7866,96 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S98">
         <v>0</v>
       </c>
       <c r="T98">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="U98">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V98">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="W98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X98">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y98">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B99">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J99">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K99">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M99">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N99">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O99">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T99">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U99">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V99">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W99">
         <v>0</v>
@@ -7964,18 +7964,18 @@
         <v>0</v>
       </c>
       <c r="Y99">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B100">
         <v>20</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -7984,37 +7984,37 @@
         <v>5</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="J100">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N100">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -8023,122 +8023,122 @@
         <v>0</v>
       </c>
       <c r="S100">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T100">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="U100">
         <v>0</v>
       </c>
       <c r="V100">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W100">
         <v>0</v>
       </c>
       <c r="X100">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y100">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B101">
         <v>20</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>5</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G101">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J101">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
       <c r="M101">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N101">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O101">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P101">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q101">
         <v>5</v>
       </c>
       <c r="R101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S101">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T101">
         <v>20</v>
       </c>
       <c r="U101">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V101">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="W101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X101">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y101">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -8147,137 +8147,137 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K102">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M102">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P102">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R102">
         <v>5</v>
       </c>
       <c r="S102">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T102">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U102">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V102">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="W102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X102">
         <v>0</v>
       </c>
       <c r="Y102">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B103">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J103">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O103">
         <v>0</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S103">
         <v>10</v>
       </c>
       <c r="T103">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U103">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V103">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="W103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X103">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y103">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B104">
         <v>20</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G104">
         <v>30</v>
@@ -8301,60 +8301,60 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J104">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M104">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P104">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S104">
         <v>10</v>
       </c>
       <c r="T104">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U104">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="V104">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X104">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y104">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B105">
         <v>20</v>
@@ -8363,81 +8363,81 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K105">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M105">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O105">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S105">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T105">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U105">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V105">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="W105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X105">
         <v>0</v>
       </c>
       <c r="Y105">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B106">
         <v>20</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -8446,31 +8446,31 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J106">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L106">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -8482,125 +8482,125 @@
         <v>0</v>
       </c>
       <c r="R106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V106">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X106">
         <v>0</v>
       </c>
       <c r="Y106">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G107">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J107">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L107">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M107">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N107">
         <v>0</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P107">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R107">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U107">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V107">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X107">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y107">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F108">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -8609,60 +8609,60 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K108">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M108">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O108">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P108">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R108">
         <v>5</v>
       </c>
       <c r="S108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U108">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="V108">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="W108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X108">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Y108">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B109">
         <v>20</v>
@@ -8671,37 +8671,37 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J109">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N109">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -8710,31 +8710,31 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S109">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U109">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V109">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="W109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X109">
         <v>0</v>
       </c>
       <c r="Y109">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">

--- a/extract_scores.xlsx
+++ b/extract_scores.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CRIq_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Thesis Work\CRIq_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,9 @@
       <selection sqref="A1:Y109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>26</v>
       </c>
@@ -421,7 +421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>66</v>
       </c>
@@ -498,7 +498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>66</v>
       </c>
@@ -652,7 +652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>29</v>
       </c>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>55</v>
       </c>
@@ -806,7 +806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>34</v>
       </c>
@@ -883,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>48</v>
       </c>
@@ -960,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>47</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>51</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>53</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>48</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>55</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>71</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>65</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>52</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>73</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>69</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>62</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>72</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>28</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>25</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>65</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>67</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>30</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>67</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>35</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>43</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>22</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>31</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>69</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>68</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>21</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>25</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>19</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>21</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>42</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>52</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>56</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>32</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>51</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>49</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>43</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>22</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>45</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>18</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>49</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>61</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>51</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>35</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>36</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>72</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>32</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>55</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>75</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>44</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>56</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>61</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>24</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>55</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>59</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>38</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>72</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>63</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>31</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>61</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>67</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>22</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>54</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>63</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>24</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>53</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>53</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>64</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>25</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>24</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>21</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>67</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>67</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>42</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>52</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>56</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>32</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>51</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>49</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>43</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>22</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>45</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>23</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>49</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>61</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>51</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>58</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>54</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>35</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>72</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>32</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>55</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>75</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>44</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>56</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>61</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>55</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>59</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>38</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>75</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>79</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>61</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>54</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>64</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>63</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>64</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>21</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>72</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>63</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>31</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>31</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>61</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>67</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>26</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>22</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>54</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>63</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>53</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>68</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>28</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>64</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>40</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>55</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>21</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>54</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>63</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>24</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>53</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>68</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>28</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>64</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>40</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>55</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>21</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>28</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>64</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>40</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>55</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>21</v>
       </c>

--- a/extract_scores.xlsx
+++ b/extract_scores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Thesis Work\CRIq_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ThesisWork\CRIq_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/extract_scores.xlsx
+++ b/extract_scores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,9 @@
       <selection sqref="A1:Y109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>26</v>
       </c>
@@ -421,7 +421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>66</v>
       </c>
@@ -498,7 +498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>19</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>66</v>
       </c>
@@ -652,7 +652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>29</v>
       </c>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>55</v>
       </c>
@@ -806,7 +806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>34</v>
       </c>
@@ -883,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>48</v>
       </c>
@@ -960,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>47</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>59</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>51</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>53</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>24</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>48</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>55</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>71</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>65</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>23</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>52</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>73</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>69</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>23</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>48</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>20</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>22</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>47</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>26</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>28</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>62</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>72</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>22</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>28</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>25</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>65</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>67</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>30</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>67</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>35</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>24</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>20</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>20</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>21</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>43</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>23</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>22</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>20</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>22</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>31</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>69</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>68</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>65</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>21</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>26</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>25</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>24</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>19</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>21</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>67</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>42</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>52</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>56</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>32</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>51</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>49</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>43</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>22</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>20</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>45</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>23</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>18</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>49</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>61</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>51</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>35</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>36</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>72</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>32</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>55</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>75</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>44</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>56</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>61</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>24</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>55</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>59</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>38</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>21</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>72</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>63</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>31</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>61</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>67</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>22</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>54</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>63</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>24</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>53</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>53</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>64</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>25</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>24</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>19</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>21</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>67</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>67</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>42</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>52</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>56</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>32</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>51</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>49</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>43</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>22</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>20</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>45</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>23</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>18</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>49</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>61</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>51</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>58</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>54</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>35</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>72</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>32</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>55</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>75</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>44</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>56</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>61</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>24</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>55</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>59</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>38</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>75</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>79</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>61</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>54</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>64</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>63</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>64</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>21</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>72</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>63</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>31</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>31</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>24</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>61</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>67</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>26</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>22</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>54</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>63</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>24</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>53</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>68</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>28</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>64</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>40</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>55</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>21</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>54</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>63</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>24</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>53</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>68</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>28</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>64</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>40</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>55</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>21</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>28</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>64</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>40</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>55</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>21</v>
       </c>

--- a/extract_scores.xlsx
+++ b/extract_scores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,9 @@
       <selection sqref="A1:Y109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>26</v>
       </c>
@@ -421,7 +421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>66</v>
       </c>
@@ -498,7 +498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>66</v>
       </c>
@@ -652,7 +652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>29</v>
       </c>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>55</v>
       </c>
@@ -806,7 +806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>34</v>
       </c>
@@ -883,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>48</v>
       </c>
@@ -960,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>47</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>51</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>53</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>48</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>55</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>71</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>65</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>52</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>73</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>69</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>62</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>72</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>28</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>25</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>65</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>67</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>30</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>67</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>35</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>43</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>22</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>31</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>69</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>68</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>21</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>25</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>19</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>21</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>42</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>52</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>56</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>32</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>51</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>49</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>43</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>22</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>45</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>18</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>49</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>61</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>51</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>35</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>36</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>72</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>32</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>55</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>75</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>44</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>56</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>61</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>24</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>55</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>59</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>38</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>72</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>63</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>31</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>61</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>67</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>22</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>54</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>63</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>24</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>53</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>53</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>64</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>25</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>24</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>21</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>67</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>67</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>42</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>52</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>56</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>32</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>51</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>49</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>43</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>22</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>45</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>23</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>49</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>61</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>51</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>58</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>54</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>35</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>72</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>32</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>55</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>75</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>44</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>56</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>61</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>55</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>59</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>38</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>75</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>79</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>61</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>54</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>64</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>63</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>64</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>21</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>72</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>63</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>31</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>31</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>61</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>67</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>26</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>22</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>54</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>63</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>53</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>68</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>28</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>64</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>40</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>55</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>21</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>54</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>63</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>24</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>53</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>68</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>28</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>64</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>40</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>55</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>21</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>28</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>64</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>40</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>55</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>21</v>
       </c>
